--- a/Equipe303.xlsx
+++ b/Equipe303.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF123B54-167B-4FE6-88EE-A69EEB36EB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF3AF6E8-26AA-424D-BEFC-38D60A83CA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="208">
   <si>
     <t>Fonct.</t>
   </si>
@@ -104,7 +104,21 @@
   <si>
     <t>-0.5 SidebarComponent
 -0.5 UserService
--0.5 VirtualPlayerService</t>
+-0.5 VirtualPlayerService
+sidebar component: recorrige
+--- Recorrection ---
+-0.5 MouseHandelingService
+-0.5 UserService
+-0.5 VirtualPlayerService
+-0.5 ScrabbleLetters
+-0.5 Dictionnary</t>
+  </si>
+  <si>
+    <t>-0.5 Client:MessageServer
+-0.5 Client:ChatService
+-0.5 Client:UserService
+-0.5 Server:MessageClient
+-0.5 ModalUserVsPlayerComponent</t>
   </si>
   <si>
     <t>1.2 Nom</t>
@@ -116,6 +130,10 @@
   </si>
   <si>
     <t>valid-world.service.ts?</t>
+  </si>
+  <si>
+    <t>-0 Client:EaselObject, pas besoin du Object
+-0 Server:GameObject, pas besoin du Object</t>
   </si>
   <si>
     <t>1.3 Attributs</t>
@@ -130,7 +148,18 @@
 -0.5 ReserviceService:121
 -0.25 ValidWordService:getCompressedWords
 -0.5 VirtulPlayerService:252
--0.5 MessageService:replaceSpecialChar</t>
+-0.5 MessageService:replaceSpecialChar
+--- Recorrection --- 
+-0.25 PlayAreaComponent:first
+-0.25 SidebarComponent: nameVr et getNameVrPlayer
+-0.25 ModalUserVsPlayerComponent:userService
+-0.25 GamePageComponent:userService
+-0.25 ReserveService:size
+-0.25 VirtualPlayerService:commandToSendVr</t>
+  </si>
+  <si>
+    <t>Client:UserServicce:initArrayMessage
+Client:reserverService:size</t>
   </si>
   <si>
     <t>1.4 Accessibilité</t>
@@ -144,6 +173,12 @@
 -0.25 UserService:51, 59, 62
 -0.25 MessageService:68
 </t>
+  </si>
+  <si>
+    <t>Client:LetterService:isWordStickedToAnother
+Client:MessageService:isInside
+Client:TemporaryCanvasService:decrementDirection
+Client:TimerService:trigerPassCommand</t>
   </si>
   <si>
     <t>1.5 Valeur par défaut</t>
@@ -161,6 +196,20 @@
 -0.5 SideBarComponent</t>
   </si>
   <si>
+    <t>-0.2 Client:ModalUserNameComponent
+-0.2 Client:GamePageComponent
+-0.2 Client:SidebarComponent
+-0.2 Client:MessageService
+-0.2 Client:MouseHandlingService
+-0.2 Client:MultiplayerModeService
+-0.2 Client:UserService
+-0.2 Client:VirtualPlayerService
+-0.2 Server:GameObject
+-0.2 Server:Timer
+-0.2 Server:SocketManagerService
+-0.2 Server:ValidateWordService</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -178,6 +227,11 @@
   </si>
   <si>
     <t>-2 la mention du type de retour doit être consistant.</t>
+  </si>
+  <si>
+    <t>warning: findNextEmptyTile() retourne un booleen 
+-0.25: virtual-player.service.ts: caclculateGeneratedWordPoints()
+-0.25: socket-manager.service.ts : initiliaseSocket()</t>
   </si>
   <si>
     <t>2.2 Utilité</t>
@@ -192,6 +246,9 @@
 -0.5 virtual-player.service.ts: 57</t>
   </si>
   <si>
+    <t>-0.5 user.service.ts: detectSkipTurnBtn() retourne toujour true!</t>
+  </si>
+  <si>
     <t>2.3 Nombre de paramètres</t>
   </si>
   <si>
@@ -200,6 +257,9 @@
   </si>
   <si>
     <t>-0.5 virtual-player.service.ts: 255</t>
+  </si>
+  <si>
+    <t>-0.5 valid-word.service.ts:274</t>
   </si>
   <si>
     <t>2.4 Fonction pure</t>
@@ -240,6 +300,11 @@
     <t>Tout code asynchrone (Promise, Observable ou Event) doit être géré adéquatement.</t>
   </si>
   <si>
+    <t>Vous devez unsubscribe lorsque le component est détruit. Exemple pour Client:SidebarComponent
+sizeSub = this.reserveService.sizeObs.subscribe(..)
+ngOnDestroy() { this.sizeSub.unsubscribe() }</t>
+  </si>
+  <si>
     <t>4. Variables</t>
   </si>
   <si>
@@ -285,6 +350,13 @@
 -0.25 PlayAreaComponent</t>
   </si>
   <si>
+    <t>-0 Client:Join-User.Component.html
+-0 Client:Vr-User.Component.html
+-0.25 Client:EaselObject
+-0 Client:Real-Player.Component.html
+-0.25 Client:UserService</t>
+  </si>
+  <si>
     <t>5.2 Logique booléenne négative</t>
   </si>
   <si>
@@ -295,6 +367,10 @@
 -0.25 VirtualPlayerService:326</t>
   </si>
   <si>
+    <t>-0 Client:VrUserComponent:32
+-0.25 Client:MessageService:55, 63</t>
+  </si>
+  <si>
     <t>5.3 Opérateurs ternaires</t>
   </si>
   <si>
@@ -303,6 +379,15 @@
   <si>
     <t>-2,5 MessageService:40,59,64,112,119
 -0.5 UserService:52</t>
+  </si>
+  <si>
+    <t>-0.25 Client:MessageService:55, 74, 79
+-0.25 Client:TemporaryCanvasService: 112, 118
+-0.25 Client:UserServiceL89, 97
+-0.25 Client:EaselLogisticsService:36
+-0.25 Client:MouseHandlingService:183
+-0.25 Client:VirtualPlayerService:fitsTheProb
+-0.25 Server:GameObject</t>
   </si>
   <si>
     <t>5.4 Prédicats</t>
@@ -315,6 +400,13 @@
     <t>-0.25 SidebarComponent:78
 -0.25 LettersService.wordIsAttached
 -0.5 MessageService:isValid, 98</t>
+  </si>
+  <si>
+    <t>-0.25 Client:GamePageComponent:75
+-0 Client:SidebarComponent:108
+-0 Client:RealPlayerComponent:26
+-0.25 Client:LetterService
+-0.25 Client:MouseHandlingService:84</t>
   </si>
   <si>
     <t>6. Qualité générale</t>
@@ -346,6 +438,14 @@
 -0.5 word-point.service.ts: espacement</t>
   </si>
   <si>
+    <t xml:space="preserve">
+-0.5 modal-user-name.component.ts:espacement
+-0.5 modal-user-vs-player.component.ts:espacement
+-0.5 game-page.component.ts:espacement
+-0.5 play-area.component.ts:espacement
+.........</t>
+  </si>
+  <si>
     <t>6.4 Langue de programmation</t>
   </si>
   <si>
@@ -369,10 +469,19 @@
 -0.5 game-page.component.html</t>
   </si>
   <si>
+    <t>-0.5 modal-user-name.component.html</t>
+  </si>
+  <si>
     <t>6.6 Enums</t>
   </si>
   <si>
     <t>Le programme utilise des enums lorsqu'elles sont nécessaires</t>
+  </si>
+  <si>
+    <t>-0.5 time.service.ts: 32,50
+-1 virtual-player.service.ts:53,96,107
+-0.5 virtual-player.service.ts:187: direction doit être un enum
+-0.5 virtual-player.service.ts:228: command doit être un enum</t>
   </si>
   <si>
     <t>6.7 Utilisation des classes et interfaces</t>
@@ -396,6 +505,11 @@
 -1 valid-word.service.ts: 245,281</t>
   </si>
   <si>
+    <t>-1: sidebar.componernt.ts:148
+-3:  grid.service.ts:137,167,181
+-1 word-point.service.ts:12</t>
+  </si>
+  <si>
     <t>6.9 ESLint</t>
   </si>
   <si>
@@ -407,6 +521,10 @@
 -1 letters.service.ts: 205, 290
 -0.5 message.service.ts:36
 -0.5 reserve.service.ts:46</t>
+  </si>
+  <si>
+    <t>-1: user-service.ts:17 : Ici pas besoins de disable le ts-lint. Il suffit de cast la valeur de retour du localStorage comme un string.
+ Ex: localStorage.getItem('userName') as string</t>
   </si>
   <si>
     <t xml:space="preserve">6.10 Imbrication </t>
@@ -422,6 +540,20 @@
 -0.5 user.service.ts: 54</t>
   </si>
   <si>
+    <t>-3: sidebar.componernt.ts:148, 241,281
+-1 mouse-handling.service.ts:119
+-0.5 temporary-canvas.service.ts: 169
+-1 valid-word.service.ts:45
+-0.5 virtual-player.service.ts:54
+-0.5 pas besoin de else/else if quand vous faites :
+if (condition) { 
+    .... code ....
+     break
+} else {
+  ... code ....
+}</t>
+  </si>
+  <si>
     <t>6.11 Performance</t>
   </si>
   <si>
@@ -438,6 +570,9 @@
   </si>
   <si>
     <t>-1 mauvais tag pour la remise (faites 2 tags différents)</t>
+  </si>
+  <si>
+    <t>Mauvaise branche. La branche de remise doit être celle sur laquelle vous faites vos MR.</t>
   </si>
   <si>
     <t>7.2 Commit</t>
@@ -449,6 +584,13 @@
     <t xml:space="preserve">-0.5 ''toute la verif marche''
 -0.5 ''vrfirstPlay''
 </t>
+  </si>
+  <si>
+    <t>3 nov "test sprint 2"
+2 nov "fixing socket"
+27 oct "style fix"
+27 oct "rightClick"
+25 oct "any to object"</t>
   </si>
   <si>
     <t>7.3 Branches mortes</t>
@@ -605,31 +747,151 @@
     <t>2.1 Mode multijoueur</t>
   </si>
   <si>
+    <t xml:space="preserve">-2: Le système doit afficher un message d'erreur au joueur si une partie non disponible est jointe avant la mise à jour de la liste
+-1: Le système doit rejeter un nom pareil au nom du créateur </t>
+  </si>
+  <si>
     <t>2.2 Clavarder</t>
   </si>
   <si>
     <t>2.3 Validation des mots sur le serveur</t>
   </si>
   <si>
+    <t xml:space="preserve">-2 Si la validation échoue, le système retire les lettres placées et les redonne au joueur après 3 secondes.
+-1 Certaines actions valides affichent une message d'action invalide dans le chat bien que l'action doit exécuter. </t>
+  </si>
+  <si>
     <t>2.4 Paramètres de partie (minuterie et mode aléatoire)</t>
   </si>
   <si>
     <t>2.5 Initialisation d'une nouvelle partie (mode multijoueur)</t>
   </si>
   <si>
+    <t xml:space="preserve">---FONCTIONNALITÉS---
+1. Paramètres de partie
+-0 commentaire ui/ux: remplacer mode de jeu par bonus aléatoire oui/non, ouencore mieux: un checkbox
+2. Changement multijoueur -&gt; solo
+-1 Non
+3. Salle d'attente pour la personne qui a créé la partie: Oui
+4. Possible de rejoindre une salle d'attente: Oui
+5. Retirer la partie de l'affichage lorsqu'elle commence: Oui
+6. Retirer la partie de l'affichage si j'annule: Oui
+---TESTS---
+Client
+- ModalUserNameComponent
+- MultiPlayerModeService.setGameInformations
+- SocketManagementService.listen('gameAccepted')
+- SocketManagementService.emit('generateAllRooms') 
+- SocketManagementService.getRooms()
+Serveur
+- SocketManagerService.on('joinRoom') 
+- SocketManagerService.on('generateAllRooms')
+- SocketManagerService.deleteRoom() </t>
+  </si>
+  <si>
     <t>2.6 Placer des lettres</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Placer des lettres: Oui
+2. Sélection de la case vide:
+-0.5 Possible de changer la case de départ s'il y a des lettres de placées
+3. Choisir une lettre avec le clavier:
+-0.5 pas de lettre blanche
+-0.5 les lettres avec accent ne fonctionnent pas
+-0.5 la flèche est affichée même s'il n'y a pas de case vide disponible dans la direction du déplacement
+4. Retirer une lettre: Oui
+5. Confirmer un placement:
+-1 le système ne termine pas mon tour après un placement confirmé si la validation échoue
+-0 Pas clair que c'est le bouton ''Jouer''
+-0 Possible de placer des mots qui n'existent pas
+6. Annuler un placement: Oui
+7. Affichage dans la boite de communication: Oui
+---TESTS---
+Client: 
+- MouseHandelingService 
+- SideBarComponent.playFirstTurn
+- LettersService.placeLetterInScrable
+Serveur:
+- SocketManagerService.sendMessage</t>
+  </si>
+  <si>
     <t>2.7 Échanger des lettres</t>
   </si>
   <si>
+    <t xml:space="preserve">---FONCTIONNALITÉS---
+1. Sélection bouton droit: Oui
+2. Annuler la sélection lors du changement de récepteur: Oui
+3. Affichage du bouton échanger: Oui
+4. Affichage du bouton annuler: Oui
+5. Piger dans la réserve: Oui
+6. Affichage dans la boite de communication:
+-0.5 doit voir le nom du joueur qui a fait la commande (jv)
+---TESTS---
+Client: 
+- MouseHandlingService.mouseHitDetect() .swapByClick()
+- MouseHandelingService.commandObs
+- SideBarComponent.logMessage
+Server: </t>
+  </si>
+  <si>
     <t>2.8 Abandonner une partie</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Bouton abandonner: Oui
+2. Abandonner à tout moment: Oui
+3. Message de confirmation: Oui
+4. Redirection à la page d'accueil: 
+-0.5 Non
+5. Annuler l'abandon: Oui
+6. Abandonner déclare l'adversaire gagnant: Oui
+7. Fermeture du site web: 
+-1 Non
+---TESTS---
+Client: 
+- PlayAreaComponent.openDialogOfFrUser() .detectQuitGame()
+- ModalUserVsPlayerComponent.quitMultiPlayerGame()
+Server:
+- SocketManagerService.socket.on('guestLeftGame') .on('userLeftGame')</t>
+  </si>
+  <si>
     <t>2.9 Manipuler les lettres du chevalet</t>
   </si>
   <si>
+    <t xml:space="preserve">---FONCTIONNALITÉS---
+1. Manipulation en tout temps avec bouton gauche: Oui
+2. Manipulation: 
+-2 impossible de sélectionner avec la touche clavier
+-1 roulette ne fonctionne pas
+-0 impossible de tester * car les touches ne fonctionnent pas
+-0 scroll la page horizontalement (enlevez les barres de scroll pourrait régléer le problème)
+3. Un seul type de sélection: Oui
+4. Annuler si une touche ne représente pas une lettre du chevalet: 
+-1 Non
+---TESTS---
+Client: 
+- MouseHandlingService.easelClicked() .moveLeft() .moveRight()
+Server: </t>
+  </si>
+  <si>
     <t>2.10 Commande réserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---FONCTIONNALITÉS---
+1. Commande réserve: 
+-0.5 la réserve est déjà affichée quand je fais debug
+-0.5 !debug ne nettoie pas le input field
+2. Affichage de la lettre blanche: 
+-1 Non
+3. Respect du format: 
+-0.5 Non, lettre z en haut
+4. Affichage seulement pour le joueur ayant envoyé la commande: Oui
+5. Seulement accessible si débogage: Oui
+---TESTS---
+Client: 
+- SidebarComponent.logMessage() .switchCaseCommands():333 .reserveLettersQuantity()
+Server: </t>
   </si>
   <si>
     <t>Ne build pas</t>
@@ -802,7 +1064,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -952,6 +1214,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="44">
     <border>
@@ -1502,7 +1770,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1648,15 +1916,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1974,9 +2233,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2182,6 +2438,129 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="26" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2203,12 +2582,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="16" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2235,84 +2608,6 @@
     </xf>
     <xf numFmtId="9" fontId="16" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2364,6 +2659,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2757,7 +3055,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2770,7 +3068,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="220"/>
+      <c r="A3" s="216"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2780,7 +3078,7 @@
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="210" t="s">
+      <c r="E3" s="206" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2791,66 +3089,66 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="212">
+      <c r="B4" s="208">
         <f>(Fonctionnalités!E20)</f>
         <v>0.54375000000000007</v>
       </c>
-      <c r="C4" s="213">
+      <c r="C4" s="209">
         <f>'Assurance Qualité'!C61</f>
-        <v>0.46750000000000003</v>
-      </c>
-      <c r="D4" s="213">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="D4" s="209">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
-        <v>0.5132500000000001</v>
+        <v>0.51125000000000009</v>
       </c>
       <c r="F4" s="13">
         <v>15</v>
       </c>
       <c r="G4" s="12">
         <f>D4*F4</f>
-        <v>7.6987500000000013</v>
+        <v>7.6687500000000011</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="215">
+      <c r="B5" s="211">
         <f>(Fonctionnalités!E36)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="216">
+        <v>0.71375</v>
+      </c>
+      <c r="C5" s="212">
         <f>'Assurance Qualité'!F61</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="216">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="D5" s="212">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.70544999999999991</v>
       </c>
       <c r="F5" s="13">
         <v>25</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
+        <v>17.636249999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="218">
+      <c r="B6" s="214">
         <f>(Fonctionnalités!E53)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="219">
+      <c r="C6" s="215">
         <f>'Assurance Qualité'!I61</f>
         <v>0</v>
       </c>
-      <c r="D6" s="219">
+      <c r="D6" s="215">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2887,8 +3185,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView topLeftCell="H54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2896,9 +3194,9 @@
     <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="77.5703125" style="17" customWidth="1"/>
     <col min="3" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" style="17" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" style="17" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="17" customWidth="1"/>
     <col min="12" max="13" width="12.7109375" customWidth="1"/>
@@ -2907,85 +3205,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="261"/>
+      <c r="K2" s="261"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="259" t="s">
+      <c r="A4" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="259"/>
-      <c r="K4" s="259"/>
+      <c r="B4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="19.5" thickBot="1">
       <c r="A5" s="18"/>
-      <c r="B5" s="221"/>
+      <c r="B5" s="217"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="221"/>
+      <c r="E5" s="217"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="221"/>
+      <c r="H5" s="217"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="221"/>
+      <c r="K5" s="217"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="251" t="s">
+      <c r="A6" s="254" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="263" t="s">
+      <c r="B6" s="266" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="253" t="s">
+      <c r="C6" s="256" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="255" t="s">
+      <c r="D6" s="257"/>
+      <c r="E6" s="257"/>
+      <c r="F6" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="256"/>
-      <c r="H6" s="257"/>
-      <c r="I6" s="260" t="s">
+      <c r="G6" s="259"/>
+      <c r="H6" s="260"/>
+      <c r="I6" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="261"/>
-      <c r="K6" s="262"/>
+      <c r="J6" s="264"/>
+      <c r="K6" s="265"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="249"/>
-      <c r="O6" s="250"/>
-      <c r="P6" s="250"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="253"/>
+      <c r="P6" s="253"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A7" s="252"/>
-      <c r="B7" s="264"/>
+      <c r="A7" s="255"/>
+      <c r="B7" s="267"/>
       <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
@@ -3015,59 +3313,64 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="220"/>
-      <c r="O7" s="220"/>
-      <c r="P7" s="220"/>
-      <c r="Q7" s="220"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="216"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="244" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="269"/>
-      <c r="C8" s="273" t="s">
+      <c r="B8" s="245"/>
+      <c r="C8" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="274"/>
-      <c r="E8" s="60" t="s">
+      <c r="D8" s="241"/>
+      <c r="E8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="273" t="s">
+      <c r="F8" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="274"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="273" t="s">
+      <c r="G8" s="241"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="274"/>
-      <c r="K8" s="60"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="45">
-      <c r="A9" s="78" t="s">
+    <row r="9" spans="1:17" ht="150">
+      <c r="A9" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="51">
-        <f>(3-1.5)/3</f>
-        <v>0.5</v>
+      <c r="C9" s="229">
+        <f>(3-5*0.5)/3</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D9" s="47">
         <v>3</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="227" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="53"/>
+      <c r="F9" s="231">
+        <f>(3-5*0.5)/3</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G9" s="48">
         <v>3</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="52"/>
       <c r="J9" s="49">
         <v>3</v>
       </c>
@@ -3077,10 +3380,10 @@
     </row>
     <row r="10" spans="1:17" ht="45">
       <c r="A10" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="35">
         <f>2/2</f>
@@ -3090,13 +3393,18 @@
         <v>2</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="37"/>
+        <v>25</v>
+      </c>
+      <c r="F10" s="37">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G10" s="33">
         <v>2</v>
       </c>
-      <c r="H10" s="38"/>
+      <c r="H10" s="38" t="s">
+        <v>26</v>
+      </c>
       <c r="I10" s="39"/>
       <c r="J10" s="34">
         <v>2</v>
@@ -3105,28 +3413,33 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="90">
+    <row r="11" spans="1:17" ht="180">
       <c r="A11" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="229">
-        <f>(3-2)/3</f>
-        <v>0.33333333333333331</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="225">
+        <f>(3-1.5)/3</f>
+        <v>0.5</v>
       </c>
       <c r="D11" s="32">
         <v>3</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="37"/>
+      <c r="E11" s="228" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="232">
+        <f>(3-0.25)/3</f>
+        <v>0.91666666666666663</v>
+      </c>
       <c r="G11" s="33">
         <v>3</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="39"/>
       <c r="J11" s="34">
         <v>3</v>
@@ -3137,10 +3450,10 @@
     </row>
     <row r="12" spans="1:17" ht="75">
       <c r="A12" s="21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="35">
         <f>(2-4*0.25)/2</f>
@@ -3150,13 +3463,17 @@
         <v>2</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.85</v>
+      </c>
       <c r="G12" s="33">
         <v>2</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="I12" s="39"/>
       <c r="J12" s="34">
         <v>2</v>
@@ -3165,14 +3482,14 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="105">
+    <row r="13" spans="1:17" ht="207" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="229">
+        <v>36</v>
+      </c>
+      <c r="C13" s="225">
         <f>(4-3.5)/4</f>
         <v>0.125</v>
       </c>
@@ -3180,13 +3497,18 @@
         <v>4</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="37"/>
+        <v>37</v>
+      </c>
+      <c r="F13" s="37">
+        <f>(4-12*0.2)/4</f>
+        <v>0.39999999999999991</v>
+      </c>
       <c r="G13" s="33">
         <v>4</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="I13" s="39"/>
       <c r="J13" s="34">
         <v>4</v>
@@ -3195,101 +3517,106 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:17" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="265" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="266"/>
-      <c r="C14" s="87">
+    <row r="14" spans="1:17" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A14" s="242" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="243"/>
+      <c r="C14" s="84">
         <f>SUMPRODUCT(C9:C13,D9:D13)</f>
-        <v>6</v>
-      </c>
-      <c r="D14" s="88">
+        <v>5.5</v>
+      </c>
+      <c r="D14" s="85">
         <f>SUM(D9:D13)</f>
         <v>14</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90">
+      <c r="E14" s="86"/>
+      <c r="F14" s="87">
         <f>SUMPRODUCT(F9:F13,G9:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="91">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G14" s="88">
         <f>SUM(G9:G13)</f>
         <v>14</v>
       </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93">
+      <c r="H14" s="89"/>
+      <c r="I14" s="90">
         <f>SUMPRODUCT(I9:I13,J9:J13)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="91">
         <f>SUM(J9:J13)</f>
         <v>14</v>
       </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="270" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="271"/>
-      <c r="C15" s="273" t="s">
+      <c r="A15" s="249" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="250"/>
+      <c r="C15" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="274"/>
-      <c r="E15" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="273" t="s">
+      <c r="D15" s="241"/>
+      <c r="E15" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="274"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="273" t="s">
+      <c r="G15" s="241"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="274"/>
-      <c r="K15" s="60"/>
+      <c r="J15" s="241"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:17" ht="45">
-      <c r="A16" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="62">
+    <row r="16" spans="1:17" ht="60">
+      <c r="A16" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="59">
         <v>0</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="60">
         <v>2</v>
       </c>
-      <c r="E16" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69">
+      <c r="E16" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="65">
+        <f>1.5/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="66">
         <v>2</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="75">
+      <c r="H16" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72">
         <v>2</v>
       </c>
-      <c r="K16" s="76"/>
+      <c r="K16" s="73"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="60">
       <c r="A17" s="21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C17" s="45">
         <v>0</v>
@@ -3297,15 +3624,20 @@
       <c r="D17" s="41">
         <v>3</v>
       </c>
-      <c r="E17" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="71"/>
+      <c r="E17" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="230">
+        <f>2.5/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G17" s="42">
         <v>3</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="77"/>
+      <c r="H17" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="74"/>
       <c r="J17" s="44">
         <v>3</v>
       </c>
@@ -3315,10 +3647,10 @@
     </row>
     <row r="18" spans="1:13" ht="45">
       <c r="A18" s="21" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C18" s="45">
         <f>2.5/3</f>
@@ -3327,15 +3659,20 @@
       <c r="D18" s="41">
         <v>3</v>
       </c>
-      <c r="E18" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="71"/>
+      <c r="E18" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="230">
+        <f>2.5/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G18" s="42">
         <v>3</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="77"/>
+      <c r="H18" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="74"/>
       <c r="J18" s="44">
         <v>3</v>
       </c>
@@ -3345,10 +3682,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="21" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C19" s="45">
         <v>1</v>
@@ -3356,13 +3693,15 @@
       <c r="D19" s="41">
         <v>3</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="71"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="68">
+        <v>1</v>
+      </c>
       <c r="G19" s="42">
         <v>3</v>
       </c>
-      <c r="H19" s="72"/>
-      <c r="I19" s="77"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="74"/>
       <c r="J19" s="44">
         <v>3</v>
       </c>
@@ -3372,10 +3711,10 @@
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="21" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C20" s="45">
         <v>1</v>
@@ -3383,13 +3722,15 @@
       <c r="D20" s="41">
         <v>2</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="71"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="68">
+        <v>1</v>
+      </c>
       <c r="G20" s="42">
         <v>2</v>
       </c>
-      <c r="H20" s="72"/>
-      <c r="I20" s="77"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="44">
         <v>2</v>
       </c>
@@ -3397,100 +3738,103 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A21" s="272" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="268"/>
-      <c r="C21" s="98">
+    <row r="21" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A21" s="251" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="248"/>
+      <c r="C21" s="95">
         <f>SUMPRODUCT(C16:C20,D16:D20)</f>
         <v>7.5</v>
       </c>
-      <c r="D21" s="99">
+      <c r="D21" s="96">
         <f>SUM(D16:D20)</f>
         <v>13</v>
       </c>
-      <c r="E21" s="100"/>
-      <c r="F21" s="101">
+      <c r="E21" s="97"/>
+      <c r="F21" s="98">
         <f>SUMPRODUCT(F16:F20,G16:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="102">
+        <v>11.5</v>
+      </c>
+      <c r="G21" s="99">
         <f>SUM(G16:G20)</f>
         <v>13</v>
       </c>
-      <c r="H21" s="103"/>
-      <c r="I21" s="104">
+      <c r="H21" s="100"/>
+      <c r="I21" s="101">
         <f>SUMPRODUCT(I16:I20,J16:J20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="105">
+      <c r="J21" s="102">
         <f>SUM(J16:J20)</f>
         <v>13</v>
       </c>
-      <c r="K21" s="106"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="238" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="269"/>
-      <c r="C22" s="273" t="s">
+      <c r="A22" s="244" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="245"/>
+      <c r="C22" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="274"/>
-      <c r="E22" s="60" t="s">
+      <c r="D22" s="241"/>
+      <c r="E22" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="273" t="s">
+      <c r="F22" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="274"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="273" t="s">
+      <c r="G22" s="241"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="274"/>
-      <c r="K22" s="60"/>
+      <c r="J22" s="241"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="60">
-      <c r="A23" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="84">
+      <c r="A23" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="81">
         <f>2/2</f>
         <v>1</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="82">
         <v>2</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="110">
+      <c r="E23" s="83"/>
+      <c r="F23" s="106">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="107">
         <v>2</v>
       </c>
-      <c r="H23" s="111"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="115">
+      <c r="H23" s="108"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="112">
         <v>2</v>
       </c>
-      <c r="K23" s="116"/>
+      <c r="K23" s="113"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" ht="90">
-      <c r="A24" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>54</v>
+      <c r="A24" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>62</v>
       </c>
       <c r="C24" s="45">
         <f>(1-3*0.25)/1</f>
@@ -3499,15 +3843,18 @@
       <c r="D24" s="41">
         <v>1</v>
       </c>
-      <c r="E24" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="71"/>
+      <c r="E24" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="68">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="G24" s="42">
         <v>1</v>
       </c>
-      <c r="H24" s="72"/>
-      <c r="I24" s="77"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="44">
         <v>1</v>
       </c>
@@ -3515,12 +3862,12 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" ht="30">
-      <c r="A25" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="83" t="s">
-        <v>57</v>
+    <row r="25" spans="1:13" ht="60">
+      <c r="A25" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>65</v>
       </c>
       <c r="C25" s="45">
         <v>1</v>
@@ -3528,13 +3875,18 @@
       <c r="D25" s="41">
         <v>1</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="71"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="68">
+        <f>0/1</f>
+        <v>0</v>
+      </c>
       <c r="G25" s="42">
         <v>1</v>
       </c>
-      <c r="H25" s="72"/>
-      <c r="I25" s="77"/>
+      <c r="H25" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="74"/>
       <c r="J25" s="44">
         <v>1</v>
       </c>
@@ -3542,99 +3894,101 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A26" s="267" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="268"/>
-      <c r="C26" s="87">
+    <row r="26" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A26" s="247" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="248"/>
+      <c r="C26" s="84">
         <f>SUMPRODUCT(C23:C25,D23:D25)</f>
         <v>3.25</v>
       </c>
-      <c r="D26" s="88">
+      <c r="D26" s="85">
         <f>SUM(D23:D25)</f>
         <v>4</v>
       </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="101">
+      <c r="E26" s="86"/>
+      <c r="F26" s="98">
         <f>SUMPRODUCT(F23:F25,G23:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="102">
+        <v>3</v>
+      </c>
+      <c r="G26" s="99">
         <f>SUM(G23:G25)</f>
         <v>4</v>
       </c>
-      <c r="H26" s="103"/>
-      <c r="I26" s="104">
+      <c r="H26" s="100"/>
+      <c r="I26" s="101">
         <f>SUMPRODUCT(I23:I25,J23:J25)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="105">
+      <c r="J26" s="102">
         <f>SUM(J23:J25)</f>
         <v>4</v>
       </c>
-      <c r="K26" s="106"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="238" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="269"/>
-      <c r="C27" s="273" t="s">
+      <c r="A27" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="245"/>
+      <c r="C27" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="274"/>
-      <c r="E27" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="273" t="s">
+      <c r="D27" s="241"/>
+      <c r="E27" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="274"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="273" t="s">
+      <c r="G27" s="241"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="274"/>
-      <c r="K27" s="60"/>
+      <c r="J27" s="241"/>
+      <c r="K27" s="57"/>
       <c r="L27" s="16"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="45">
-      <c r="A28" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="121" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="112">
-        <v>1</v>
-      </c>
-      <c r="D28" s="61">
+      <c r="A28" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="109">
+        <v>1</v>
+      </c>
+      <c r="D28" s="58">
         <v>2</v>
       </c>
-      <c r="E28" s="113"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="66">
+      <c r="E28" s="110"/>
+      <c r="F28" s="104">
+        <v>1</v>
+      </c>
+      <c r="G28" s="63">
         <v>2</v>
       </c>
-      <c r="H28" s="67"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="73">
+      <c r="H28" s="64"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="70">
         <v>2</v>
       </c>
-      <c r="K28" s="119"/>
+      <c r="K28" s="116"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" ht="30">
-      <c r="A29" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>62</v>
+      <c r="A29" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>71</v>
       </c>
       <c r="C29" s="45">
         <v>1</v>
@@ -3642,13 +3996,15 @@
       <c r="D29" s="41">
         <v>2</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="71"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="68">
+        <v>1</v>
+      </c>
       <c r="G29" s="42">
         <v>2</v>
       </c>
       <c r="H29" s="43"/>
-      <c r="I29" s="77"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="44">
         <v>2</v>
       </c>
@@ -3658,10 +4014,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>73</v>
       </c>
       <c r="C30" s="45">
         <v>1</v>
@@ -3669,13 +4025,15 @@
       <c r="D30" s="41">
         <v>2</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="71"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="68">
+        <v>1</v>
+      </c>
       <c r="G30" s="42">
         <v>2</v>
       </c>
       <c r="H30" s="43"/>
-      <c r="I30" s="77"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="44">
         <v>2</v>
       </c>
@@ -3685,10 +4043,10 @@
     </row>
     <row r="31" spans="1:13" ht="60">
       <c r="A31" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>75</v>
       </c>
       <c r="C31" s="45">
         <v>0</v>
@@ -3696,15 +4054,17 @@
       <c r="D31" s="41">
         <v>3</v>
       </c>
-      <c r="E31" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="71"/>
+      <c r="E31" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="68">
+        <v>1</v>
+      </c>
       <c r="G31" s="42">
         <v>3</v>
       </c>
       <c r="H31" s="43"/>
-      <c r="I31" s="77"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="44">
         <v>3</v>
       </c>
@@ -3712,102 +4072,107 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A32" s="265" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="266"/>
-      <c r="C32" s="87">
+    <row r="32" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A32" s="242" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="243"/>
+      <c r="C32" s="84">
         <f>SUMPRODUCT(C28:C31,D28:D31)</f>
         <v>6</v>
       </c>
-      <c r="D32" s="88">
+      <c r="D32" s="85">
         <f>SUM(D28:D31)</f>
         <v>9</v>
       </c>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90">
+      <c r="E32" s="86"/>
+      <c r="F32" s="87">
         <f>SUMPRODUCT(F28:F31,G28:G31)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="91">
+        <v>9</v>
+      </c>
+      <c r="G32" s="88">
         <f>SUM(G28:G31)</f>
         <v>9</v>
       </c>
-      <c r="H32" s="117"/>
-      <c r="I32" s="104">
+      <c r="H32" s="114"/>
+      <c r="I32" s="101">
         <f>SUMPRODUCT(I28:I31,J28:J31)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="105">
+      <c r="J32" s="102">
         <f>SUM(J28:J31)</f>
         <v>9</v>
       </c>
-      <c r="K32" s="106"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="238" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="239"/>
-      <c r="C33" s="273" t="s">
+      <c r="A33" s="244" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="246"/>
+      <c r="C33" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="274"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="241"/>
+      <c r="E33" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="273" t="s">
+      <c r="F33" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="274"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="58" t="s">
+      <c r="G33" s="241"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="59"/>
-      <c r="K33" s="60"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
       <c r="L33" s="15"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" ht="45">
-      <c r="A34" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="112">
+    <row r="34" spans="1:13" ht="75">
+      <c r="A34" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="109">
         <f>(1-1)/1</f>
         <v>0</v>
       </c>
-      <c r="D34" s="61">
-        <v>1</v>
-      </c>
-      <c r="E34" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="107"/>
-      <c r="G34" s="66">
-        <v>1</v>
-      </c>
-      <c r="H34" s="108"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="73">
-        <v>1</v>
-      </c>
-      <c r="K34" s="119"/>
+      <c r="D34" s="58">
+        <v>1</v>
+      </c>
+      <c r="E34" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="104">
+        <f>(1-2*0.25)/1</f>
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="63">
+        <v>1</v>
+      </c>
+      <c r="H34" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="115"/>
+      <c r="J34" s="70">
+        <v>1</v>
+      </c>
+      <c r="K34" s="116"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" ht="30">
-      <c r="A35" s="56" t="s">
-        <v>72</v>
+      <c r="A35" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C35" s="45">
         <f>(1-2*0.25)/1</f>
@@ -3816,15 +4181,20 @@
       <c r="D35" s="41">
         <v>1</v>
       </c>
-      <c r="E35" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="71"/>
+      <c r="E35" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="68">
+        <f>(1-0.25)/1</f>
+        <v>0.75</v>
+      </c>
       <c r="G35" s="42">
         <v>1</v>
       </c>
-      <c r="H35" s="72"/>
-      <c r="I35" s="77"/>
+      <c r="H35" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="74"/>
       <c r="J35" s="44">
         <v>1</v>
       </c>
@@ -3832,12 +4202,12 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" ht="75">
+    <row r="36" spans="1:13" ht="105">
       <c r="A36" s="21" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C36" s="45">
         <v>0</v>
@@ -3845,15 +4215,20 @@
       <c r="D36" s="41">
         <v>3</v>
       </c>
-      <c r="E36" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="71"/>
+      <c r="E36" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="230">
+        <f>(3-7*0.25)/3</f>
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G36" s="42">
         <v>3</v>
       </c>
-      <c r="H36" s="72"/>
-      <c r="I36" s="77"/>
+      <c r="H36" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="74"/>
       <c r="J36" s="44">
         <v>3</v>
       </c>
@@ -3861,12 +4236,12 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="45">
+    <row r="37" spans="1:13" ht="75">
       <c r="A37" s="21" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C37" s="45">
         <f>(3-1)/2</f>
@@ -3875,15 +4250,20 @@
       <c r="D37" s="41">
         <v>3</v>
       </c>
-      <c r="E37" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="71"/>
+      <c r="E37" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="68">
+        <f>(3-3*0.25)/3</f>
+        <v>0.75</v>
+      </c>
       <c r="G37" s="42">
         <v>3</v>
       </c>
-      <c r="H37" s="72"/>
-      <c r="I37" s="77"/>
+      <c r="H37" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="74"/>
       <c r="J37" s="44">
         <v>3</v>
       </c>
@@ -3891,99 +4271,101 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A38" s="265" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="266"/>
-      <c r="C38" s="122">
+    <row r="38" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A38" s="242" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="243"/>
+      <c r="C38" s="119">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>3.5</v>
       </c>
-      <c r="D38" s="88">
+      <c r="D38" s="85">
         <f>SUM(D34:D37)</f>
         <v>8</v>
       </c>
-      <c r="E38" s="89"/>
-      <c r="F38" s="123">
+      <c r="E38" s="86"/>
+      <c r="F38" s="120">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="91">
+        <v>4.75</v>
+      </c>
+      <c r="G38" s="88">
         <f>SUM(G34:G37)</f>
         <v>8</v>
       </c>
-      <c r="H38" s="92"/>
-      <c r="I38" s="104">
+      <c r="H38" s="89"/>
+      <c r="I38" s="101">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="105">
+      <c r="J38" s="102">
         <f>SUM(J34:J37)</f>
         <v>8</v>
       </c>
-      <c r="K38" s="106"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="238" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="269"/>
-      <c r="C39" s="273" t="s">
+      <c r="A39" s="244" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="245"/>
+      <c r="C39" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="274"/>
-      <c r="E39" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="273" t="s">
+      <c r="D39" s="241"/>
+      <c r="E39" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="274"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="273" t="s">
+      <c r="G39" s="241"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="274"/>
-      <c r="K39" s="60"/>
+      <c r="J39" s="241"/>
+      <c r="K39" s="57"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="45">
-      <c r="A40" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="84">
-        <v>1</v>
-      </c>
-      <c r="D40" s="85">
-        <v>1</v>
-      </c>
-      <c r="E40" s="86"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="110">
-        <v>1</v>
-      </c>
-      <c r="H40" s="111"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="115">
-        <v>1</v>
-      </c>
-      <c r="K40" s="116"/>
+      <c r="A40" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="81">
+        <v>1</v>
+      </c>
+      <c r="D40" s="82">
+        <v>1</v>
+      </c>
+      <c r="E40" s="83"/>
+      <c r="F40" s="106">
+        <v>1</v>
+      </c>
+      <c r="G40" s="107">
+        <v>1</v>
+      </c>
+      <c r="H40" s="108"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="112">
+        <v>1</v>
+      </c>
+      <c r="K40" s="113"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="30">
       <c r="A41" s="21" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C41" s="45">
         <v>1</v>
@@ -3991,13 +4373,15 @@
       <c r="D41" s="41">
         <v>4</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="71"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="68">
+        <v>1</v>
+      </c>
       <c r="G41" s="42">
         <v>4</v>
       </c>
-      <c r="H41" s="72"/>
-      <c r="I41" s="77"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="74"/>
       <c r="J41" s="44">
         <v>4</v>
       </c>
@@ -4007,10 +4391,10 @@
     </row>
     <row r="42" spans="1:13" ht="104.25" customHeight="1">
       <c r="A42" s="21" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C42" s="45">
         <v>0</v>
@@ -4018,15 +4402,19 @@
       <c r="D42" s="41">
         <v>3</v>
       </c>
-      <c r="E42" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="71"/>
+      <c r="E42" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="68">
+        <v>0</v>
+      </c>
       <c r="G42" s="42">
         <v>3</v>
       </c>
-      <c r="H42" s="72"/>
-      <c r="I42" s="77"/>
+      <c r="H42" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="74"/>
       <c r="J42" s="44">
         <v>3</v>
       </c>
@@ -4036,10 +4424,10 @@
     </row>
     <row r="43" spans="1:13" ht="45">
       <c r="A43" s="21" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C43" s="45">
         <v>0</v>
@@ -4047,15 +4435,17 @@
       <c r="D43" s="41">
         <v>2</v>
       </c>
-      <c r="E43" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="71"/>
+      <c r="E43" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="68">
+        <v>1</v>
+      </c>
       <c r="G43" s="42">
         <v>2</v>
       </c>
-      <c r="H43" s="72"/>
-      <c r="I43" s="77"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="74"/>
       <c r="J43" s="44">
         <v>2</v>
       </c>
@@ -4064,10 +4454,10 @@
     </row>
     <row r="44" spans="1:13" ht="60">
       <c r="A44" s="21" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C44" s="35">
         <v>0</v>
@@ -4076,13 +4466,18 @@
         <v>2</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="37"/>
+        <v>108</v>
+      </c>
+      <c r="F44" s="37">
+        <f>1.5/2</f>
+        <v>0.75</v>
+      </c>
       <c r="G44" s="33">
         <v>2</v>
       </c>
-      <c r="H44" s="38"/>
+      <c r="H44" s="38" t="s">
+        <v>109</v>
+      </c>
       <c r="I44" s="39"/>
       <c r="J44" s="34">
         <v>2</v>
@@ -4091,12 +4486,12 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" ht="90">
       <c r="A45" s="21" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C45" s="35">
         <v>1</v>
@@ -4105,11 +4500,16 @@
         <v>3</v>
       </c>
       <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
+      <c r="F45" s="232">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G45" s="33">
         <v>3</v>
       </c>
-      <c r="H45" s="38"/>
+      <c r="H45" s="38" t="s">
+        <v>112</v>
+      </c>
       <c r="I45" s="39"/>
       <c r="J45" s="34">
         <v>3</v>
@@ -4120,10 +4520,10 @@
     </row>
     <row r="46" spans="1:13" ht="30">
       <c r="A46" s="21" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C46" s="45">
         <f>2.5/3</f>
@@ -4132,15 +4532,17 @@
       <c r="D46" s="41">
         <v>3</v>
       </c>
-      <c r="E46" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="71"/>
+      <c r="E46" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="68">
+        <v>1</v>
+      </c>
       <c r="G46" s="42">
         <v>3</v>
       </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="77"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="44">
         <v>3</v>
       </c>
@@ -4148,12 +4550,12 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" ht="75">
+    <row r="47" spans="1:13" ht="60">
       <c r="A47" s="21" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C47" s="45">
         <v>0</v>
@@ -4161,15 +4563,20 @@
       <c r="D47" s="41">
         <v>6</v>
       </c>
-      <c r="E47" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="71"/>
+      <c r="E47" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="230">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G47" s="42">
         <v>6</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="77"/>
+      <c r="H47" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="I47" s="74"/>
       <c r="J47" s="44">
         <v>6</v>
       </c>
@@ -4179,10 +4586,10 @@
     </row>
     <row r="48" spans="1:13" ht="69.75" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C48" s="45">
         <v>0</v>
@@ -4190,15 +4597,20 @@
       <c r="D48" s="41">
         <v>8</v>
       </c>
-      <c r="E48" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" s="71"/>
+      <c r="E48" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="68">
+        <f>7/8</f>
+        <v>0.875</v>
+      </c>
       <c r="G48" s="42">
         <v>8</v>
       </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="77"/>
+      <c r="H48" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="74"/>
       <c r="J48" s="44">
         <v>8</v>
       </c>
@@ -4206,12 +4618,12 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" ht="75">
+    <row r="49" spans="1:13" ht="180">
       <c r="A49" s="21" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C49" s="45">
         <v>0</v>
@@ -4219,15 +4631,19 @@
       <c r="D49" s="41">
         <v>6</v>
       </c>
-      <c r="E49" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="71"/>
+      <c r="E49" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="68">
+        <v>0</v>
+      </c>
       <c r="G49" s="42">
         <v>6</v>
       </c>
-      <c r="H49" s="72"/>
-      <c r="I49" s="77"/>
+      <c r="H49" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="I49" s="74"/>
       <c r="J49" s="44">
         <v>6</v>
       </c>
@@ -4237,10 +4653,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="21" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C50" s="45">
         <v>1</v>
@@ -4248,13 +4664,15 @@
       <c r="D50" s="41">
         <v>3</v>
       </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="71"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="68">
+        <v>1</v>
+      </c>
       <c r="G50" s="42">
         <v>3</v>
       </c>
-      <c r="H50" s="72"/>
-      <c r="I50" s="77"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="74"/>
       <c r="J50" s="44">
         <v>3</v>
       </c>
@@ -4262,102 +4680,107 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A51" s="265" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="266"/>
-      <c r="C51" s="132">
+    <row r="51" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A51" s="242" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="243"/>
+      <c r="C51" s="129">
         <f>SUMPRODUCT(C40:C50,D40:D50)</f>
         <v>13.5</v>
       </c>
-      <c r="D51" s="99">
+      <c r="D51" s="96">
         <f>SUM(D40:D50)</f>
         <v>41</v>
       </c>
-      <c r="E51" s="100"/>
-      <c r="F51" s="123">
+      <c r="E51" s="97"/>
+      <c r="F51" s="120">
         <f>SUMPRODUCT(F40:F50,G40:G50)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="91">
+        <v>23</v>
+      </c>
+      <c r="G51" s="88">
         <f>SUM(G40:G50)</f>
         <v>41</v>
       </c>
-      <c r="H51" s="92"/>
-      <c r="I51" s="93">
+      <c r="H51" s="89"/>
+      <c r="I51" s="90">
         <f>SUMPRODUCT(I40:I50,J40:J50)</f>
         <v>0</v>
       </c>
-      <c r="J51" s="94">
+      <c r="J51" s="91">
         <f>SUM(J40:J50)</f>
         <v>41</v>
       </c>
-      <c r="K51" s="95"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A52" s="238" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="239"/>
-      <c r="C52" s="273" t="s">
+      <c r="A52" s="244" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="246"/>
+      <c r="C52" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="274"/>
-      <c r="E52" s="60" t="s">
+      <c r="D52" s="241"/>
+      <c r="E52" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="273" t="s">
+      <c r="F52" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="274"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="273" t="s">
+      <c r="G52" s="241"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="274"/>
-      <c r="K52" s="60"/>
+      <c r="J52" s="241"/>
+      <c r="K52" s="57"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" ht="45">
-      <c r="A53" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="112">
+    <row r="53" spans="1:13" ht="30">
+      <c r="A53" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="109">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="D53" s="61">
+      <c r="D53" s="58">
         <v>2</v>
       </c>
-      <c r="E53" s="113" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="109"/>
-      <c r="G53" s="110">
+      <c r="E53" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="106">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="107">
         <v>2</v>
       </c>
-      <c r="H53" s="111"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="128">
+      <c r="H53" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" s="124"/>
+      <c r="J53" s="125">
         <v>2</v>
       </c>
-      <c r="K53" s="129"/>
+      <c r="K53" s="126"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" ht="60">
+    <row r="54" spans="1:13" ht="75">
       <c r="A54" s="21" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C54" s="45">
         <f>1/2</f>
@@ -4366,28 +4789,33 @@
       <c r="D54" s="41">
         <v>2</v>
       </c>
-      <c r="E54" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="F54" s="71"/>
+      <c r="E54" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54" s="230">
+        <f>(2-0.5)/2</f>
+        <v>0.75</v>
+      </c>
       <c r="G54" s="42">
         <v>2</v>
       </c>
-      <c r="H54" s="72"/>
-      <c r="I54" s="130"/>
-      <c r="J54" s="124">
+      <c r="H54" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="I54" s="127"/>
+      <c r="J54" s="121">
         <v>2</v>
       </c>
-      <c r="K54" s="131"/>
+      <c r="K54" s="128"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="56" t="s">
-        <v>118</v>
+      <c r="A55" s="53" t="s">
+        <v>139</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C55" s="45">
         <v>1</v>
@@ -4395,26 +4823,29 @@
       <c r="D55" s="41">
         <v>1</v>
       </c>
-      <c r="E55" s="65"/>
-      <c r="F55" s="71"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="68">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="G55" s="42">
         <v>1</v>
       </c>
-      <c r="H55" s="72"/>
-      <c r="I55" s="130"/>
-      <c r="J55" s="124">
-        <v>1</v>
-      </c>
-      <c r="K55" s="131"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="121">
+        <v>1</v>
+      </c>
+      <c r="K55" s="128"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" ht="105">
-      <c r="A56" s="56" t="s">
-        <v>120</v>
+      <c r="A56" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C56" s="45">
         <f>(4-2)/4</f>
@@ -4423,28 +4854,31 @@
       <c r="D56" s="41">
         <v>4</v>
       </c>
-      <c r="E56" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="F56" s="71"/>
+      <c r="E56" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="68">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
       <c r="G56" s="42">
         <v>4</v>
       </c>
-      <c r="H56" s="72"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="124">
+      <c r="H56" s="69"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="121">
         <v>4</v>
       </c>
-      <c r="K56" s="131"/>
+      <c r="K56" s="128"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" ht="45">
       <c r="A57" s="21" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C57" s="45">
         <v>1</v>
@@ -4452,135 +4886,172 @@
       <c r="D57" s="41">
         <v>2</v>
       </c>
-      <c r="E57" s="65"/>
-      <c r="F57" s="71"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="68">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G57" s="42">
         <v>2</v>
       </c>
-      <c r="H57" s="72"/>
-      <c r="I57" s="130"/>
-      <c r="J57" s="124">
+      <c r="H57" s="69"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="121">
         <v>2</v>
       </c>
-      <c r="K57" s="131"/>
+      <c r="K57" s="128"/>
       <c r="L57" s="7"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A58" s="265" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="266"/>
-      <c r="C58" s="98">
+    <row r="58" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A58" s="242" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="243"/>
+      <c r="C58" s="95">
         <f>SUMPRODUCT(C53:C57,D53:D57)</f>
         <v>7</v>
       </c>
-      <c r="D58" s="99">
+      <c r="D58" s="96">
         <f>SUM(D53:D57)</f>
         <v>11</v>
       </c>
-      <c r="E58" s="100"/>
-      <c r="F58" s="101">
+      <c r="E58" s="97"/>
+      <c r="F58" s="98">
         <f>SUMPRODUCT(F53:F57,G53:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="102">
+        <v>9.5</v>
+      </c>
+      <c r="G58" s="99">
         <f>SUM(G53:G57)</f>
         <v>11</v>
       </c>
-      <c r="H58" s="103"/>
-      <c r="I58" s="93">
+      <c r="H58" s="100"/>
+      <c r="I58" s="90">
         <f>SUMPRODUCT(I53:I57,J53:J57)</f>
         <v>0</v>
       </c>
-      <c r="J58" s="94">
+      <c r="J58" s="91">
         <f>SUM(J53:J57)</f>
         <v>11</v>
       </c>
-      <c r="K58" s="95"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="96"/>
+      <c r="K58" s="92"/>
+      <c r="L58" s="93"/>
+      <c r="M58" s="93"/>
     </row>
     <row r="59" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="231" t="s">
+      <c r="A59" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="232"/>
-      <c r="C59" s="232"/>
-      <c r="D59" s="232"/>
-      <c r="E59" s="232"/>
-      <c r="F59" s="232"/>
-      <c r="G59" s="232"/>
-      <c r="H59" s="232"/>
-      <c r="I59" s="232"/>
-      <c r="J59" s="232"/>
-      <c r="K59" s="233"/>
+      <c r="B59" s="269"/>
+      <c r="C59" s="269"/>
+      <c r="D59" s="269"/>
+      <c r="E59" s="269"/>
+      <c r="F59" s="269"/>
+      <c r="G59" s="269"/>
+      <c r="H59" s="269"/>
+      <c r="I59" s="269"/>
+      <c r="J59" s="269"/>
+      <c r="K59" s="270"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="234" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="235"/>
-      <c r="C60" s="133">
+      <c r="A60" s="271" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="272"/>
+      <c r="C60" s="130">
         <f t="shared" ref="C60:J60" si="0">C14+C21+C26+C32+C38+C51+C58</f>
-        <v>46.75</v>
-      </c>
-      <c r="D60" s="63">
+        <v>46.25</v>
+      </c>
+      <c r="D60" s="60">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E60" s="64"/>
-      <c r="F60" s="134">
+      <c r="E60" s="61"/>
+      <c r="F60" s="131">
+        <f t="shared" si="0"/>
+        <v>69.3</v>
+      </c>
+      <c r="G60" s="66">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H60" s="67"/>
+      <c r="I60" s="132">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G60" s="69">
+      <c r="J60" s="122">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H60" s="70"/>
-      <c r="I60" s="135">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="125">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K60" s="126"/>
+      <c r="K60" s="123"/>
       <c r="L60" s="7"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="236" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61" s="237"/>
-      <c r="C61" s="240">
+    <row r="61" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A61" s="273" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="274"/>
+      <c r="C61" s="275">
         <f>C60/D60</f>
-        <v>0.46750000000000003</v>
-      </c>
-      <c r="D61" s="241"/>
-      <c r="E61" s="242"/>
-      <c r="F61" s="243">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="D61" s="276"/>
+      <c r="E61" s="277"/>
+      <c r="F61" s="278">
         <f>F60/G60</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="244"/>
-      <c r="H61" s="245"/>
-      <c r="I61" s="246">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="G61" s="279"/>
+      <c r="H61" s="280"/>
+      <c r="I61" s="281">
         <f>I60/J60</f>
         <v>0</v>
       </c>
-      <c r="J61" s="247"/>
-      <c r="K61" s="248"/>
-      <c r="L61" s="136"/>
-      <c r="M61" s="136"/>
+      <c r="J61" s="282"/>
+      <c r="K61" s="283"/>
+      <c r="L61" s="133"/>
+      <c r="M61" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="I22:J22"/>
@@ -4595,40 +5066,6 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14 L21 L26 L32 L38 L51" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -4650,1014 +5087,1058 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="138" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="138" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="138"/>
-    <col min="5" max="5" width="11" style="138" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="138" customWidth="1"/>
-    <col min="7" max="7" width="54.85546875" style="138" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="138"/>
+    <col min="1" max="1" width="50.5703125" style="135" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="135" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="135"/>
+    <col min="5" max="5" width="11" style="135" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="135" customWidth="1"/>
+    <col min="7" max="7" width="54.85546875" style="135" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="135"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="284" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="140"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="137"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
-      <c r="A4" s="137" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
+      <c r="A4" s="134" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="24" thickBot="1">
-      <c r="A6" s="283" t="s">
+      <c r="A6" s="292" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="284"/>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="285"/>
+      <c r="B6" s="293"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="293"/>
+      <c r="E6" s="293"/>
+      <c r="F6" s="293"/>
+      <c r="G6" s="294"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="160" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="287"/>
+      <c r="A7" s="157" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="295"/>
+      <c r="C7" s="295"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="296"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="209" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="188" t="s">
+      <c r="A8" s="205" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="188" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="188" t="s">
+      <c r="C8" s="184" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="188" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="188" t="s">
+      <c r="E8" s="184" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="189" t="s">
+      <c r="G8" s="185" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="148" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="141">
+      <c r="A9" s="145" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="138">
         <f>5/5</f>
         <v>1</v>
       </c>
-      <c r="C9" s="141">
+      <c r="C9" s="138">
         <v>0.75</v>
       </c>
-      <c r="D9" s="141">
+      <c r="D9" s="138">
         <v>5</v>
       </c>
-      <c r="E9" s="141">
+      <c r="E9" s="138">
         <f t="shared" ref="E9:E19" si="0">B9*C9*D9</f>
         <v>3.75</v>
       </c>
-      <c r="F9" s="223" t="s">
+      <c r="F9" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="225" t="s">
-        <v>133</v>
+      <c r="G9" s="221" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75">
-      <c r="A10" s="190" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="191">
+      <c r="A10" s="186" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="187">
         <v>0.5</v>
       </c>
-      <c r="C10" s="191">
+      <c r="C10" s="187">
         <v>0.75</v>
       </c>
-      <c r="D10" s="191">
+      <c r="D10" s="187">
         <v>5</v>
       </c>
-      <c r="E10" s="191">
+      <c r="E10" s="187">
         <f t="shared" si="0"/>
         <v>1.875</v>
       </c>
-      <c r="F10" s="224" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="227" t="s">
-        <v>135</v>
+      <c r="F10" s="220" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="223" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="180">
-      <c r="A11" s="148" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="226">
+      <c r="A11" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="222">
         <f>(18-5)/18</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="C11" s="141">
+      <c r="C11" s="138">
         <v>0.75</v>
       </c>
-      <c r="D11" s="141">
+      <c r="D11" s="138">
         <v>18</v>
       </c>
-      <c r="E11" s="141">
+      <c r="E11" s="138">
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
-      <c r="F11" s="223" t="s">
+      <c r="F11" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="225" t="s">
-        <v>137</v>
+      <c r="G11" s="221" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90">
-      <c r="A12" s="190" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="191">
+      <c r="A12" s="186" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="187">
         <f>13/16</f>
         <v>0.8125</v>
       </c>
-      <c r="C12" s="191">
+      <c r="C12" s="187">
         <v>0.75</v>
       </c>
-      <c r="D12" s="191">
+      <c r="D12" s="187">
         <v>16</v>
       </c>
-      <c r="E12" s="191">
+      <c r="E12" s="187">
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
-      <c r="F12" s="224" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="227" t="s">
-        <v>139</v>
+      <c r="F12" s="220" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="223" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="180">
-      <c r="A13" s="148" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="141">
+      <c r="A13" s="145" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="138">
         <f>7/10</f>
         <v>0.7</v>
       </c>
-      <c r="C13" s="141">
+      <c r="C13" s="138">
         <v>0.75</v>
       </c>
-      <c r="D13" s="141">
+      <c r="D13" s="138">
         <v>10</v>
       </c>
-      <c r="E13" s="141">
+      <c r="E13" s="138">
         <f t="shared" si="0"/>
         <v>5.2499999999999991</v>
       </c>
-      <c r="F13" s="223" t="s">
+      <c r="F13" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="225" t="s">
-        <v>141</v>
+      <c r="G13" s="221" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75">
-      <c r="A14" s="148" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="141">
+      <c r="A14" s="145" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="138">
         <f>7/8</f>
         <v>0.875</v>
       </c>
-      <c r="C14" s="141">
-        <v>1</v>
-      </c>
-      <c r="D14" s="141">
+      <c r="C14" s="138">
+        <v>1</v>
+      </c>
+      <c r="D14" s="138">
         <v>8</v>
       </c>
-      <c r="E14" s="141">
+      <c r="E14" s="138">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F14" s="223" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="225" t="s">
-        <v>143</v>
+      <c r="F14" s="219" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="221" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="60">
-      <c r="A15" s="190" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="228">
+      <c r="A15" s="186" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="224">
         <f>(12-1)/12</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="C15" s="191">
+      <c r="C15" s="187">
         <v>0.75</v>
       </c>
-      <c r="D15" s="191">
+      <c r="D15" s="187">
         <v>12</v>
       </c>
-      <c r="E15" s="191">
+      <c r="E15" s="187">
         <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
-      <c r="F15" s="224" t="s">
+      <c r="F15" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="227" t="s">
-        <v>145</v>
+      <c r="G15" s="223" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="90">
-      <c r="A16" s="148" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="141">
+      <c r="A16" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="138">
         <v>0.2</v>
       </c>
-      <c r="C16" s="141">
-        <v>1</v>
-      </c>
-      <c r="D16" s="141">
+      <c r="C16" s="138">
+        <v>1</v>
+      </c>
+      <c r="D16" s="138">
         <v>10</v>
       </c>
-      <c r="E16" s="141">
+      <c r="E16" s="138">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F16" s="223" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="225" t="s">
-        <v>147</v>
+      <c r="F16" s="219" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="221" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="191">
-        <v>1</v>
-      </c>
-      <c r="C17" s="191">
+      <c r="A17" s="186" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="187">
+        <v>1</v>
+      </c>
+      <c r="C17" s="187">
         <v>0.75</v>
       </c>
-      <c r="D17" s="191">
+      <c r="D17" s="187">
         <v>4</v>
       </c>
-      <c r="E17" s="191">
+      <c r="E17" s="187">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F17" s="224" t="s">
+      <c r="F17" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="227" t="s">
-        <v>149</v>
+      <c r="G17" s="223" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="90">
-      <c r="A18" s="148" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="141">
+      <c r="A18" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="138">
         <v>0</v>
       </c>
-      <c r="C18" s="141">
+      <c r="C18" s="138">
         <v>0</v>
       </c>
-      <c r="D18" s="141">
+      <c r="D18" s="138">
         <v>6</v>
       </c>
-      <c r="E18" s="141">
+      <c r="E18" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="230" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="225" t="s">
-        <v>151</v>
+      <c r="F18" s="226" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="221" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="190" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="191">
-        <v>1</v>
-      </c>
-      <c r="C19" s="191">
-        <v>1</v>
-      </c>
-      <c r="D19" s="191">
+      <c r="A19" s="186" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="187">
+        <v>1</v>
+      </c>
+      <c r="C19" s="187">
+        <v>1</v>
+      </c>
+      <c r="D19" s="187">
         <v>6</v>
       </c>
-      <c r="E19" s="191">
+      <c r="E19" s="187">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F19" s="224" t="s">
+      <c r="F19" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="192"/>
+      <c r="G19" s="188"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="170" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="288"/>
-      <c r="C20" s="288"/>
-      <c r="D20" s="222">
+      <c r="A20" s="166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="297"/>
+      <c r="C20" s="297"/>
+      <c r="D20" s="218">
         <f>SUM(D9:D19)</f>
         <v>100</v>
       </c>
-      <c r="E20" s="171">
+      <c r="E20" s="167">
         <f>SUM(E9:E19)/D20 + E22*D22 + E21*D21</f>
         <v>0.54375000000000007</v>
       </c>
-      <c r="F20" s="173"/>
-      <c r="G20" s="172"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="168"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="190" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194">
+      <c r="A21" s="186" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="189"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="190">
         <v>-0.15</v>
       </c>
-      <c r="E21" s="193">
+      <c r="E21" s="189">
         <v>0.15</v>
       </c>
-      <c r="F21" s="193"/>
-      <c r="G21" s="195" t="s">
-        <v>155</v>
+      <c r="F21" s="189"/>
+      <c r="G21" s="191" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="149" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151">
+      <c r="A22" s="146" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148">
         <v>-0.2</v>
       </c>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="152"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="149"/>
     </row>
     <row r="23" spans="1:7" ht="24" thickBot="1">
-      <c r="A23" s="289" t="s">
+      <c r="A23" s="298" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="290"/>
-      <c r="C23" s="290"/>
-      <c r="D23" s="290"/>
-      <c r="E23" s="290"/>
-      <c r="F23" s="290"/>
-      <c r="G23" s="291"/>
+      <c r="B23" s="299"/>
+      <c r="C23" s="299"/>
+      <c r="D23" s="299"/>
+      <c r="E23" s="299"/>
+      <c r="F23" s="299"/>
+      <c r="G23" s="300"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="159" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="276"/>
-      <c r="C24" s="276"/>
-      <c r="D24" s="276"/>
-      <c r="E24" s="276"/>
-      <c r="F24" s="276"/>
-      <c r="G24" s="277"/>
+      <c r="A24" s="156" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="285"/>
+      <c r="C24" s="285"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="285"/>
+      <c r="F24" s="285"/>
+      <c r="G24" s="286"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="208" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="196" t="s">
+      <c r="A25" s="204" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="196" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="196" t="s">
+      <c r="C25" s="192" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="196" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="196" t="s">
+      <c r="E25" s="192" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="197" t="s">
+      <c r="G25" s="193" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="153" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="142">
-        <v>0</v>
-      </c>
-      <c r="C26" s="142">
-        <v>0</v>
-      </c>
-      <c r="D26" s="142">
+    <row r="26" spans="1:7" ht="75">
+      <c r="A26" s="150" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="301">
+        <f>20/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C26" s="139">
+        <v>1</v>
+      </c>
+      <c r="D26" s="139">
         <v>24</v>
       </c>
-      <c r="E26" s="142">
+      <c r="E26" s="139">
         <f>B26*C26*D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="142"/>
-      <c r="G26" s="161"/>
+        <v>20</v>
+      </c>
+      <c r="F26" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="233" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="198" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="199">
-        <v>0</v>
-      </c>
-      <c r="C27" s="199">
-        <v>0</v>
-      </c>
-      <c r="D27" s="199">
+      <c r="A27" s="194" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="195">
+        <v>1</v>
+      </c>
+      <c r="C27" s="195">
+        <v>1</v>
+      </c>
+      <c r="D27" s="195">
         <v>8</v>
       </c>
-      <c r="E27" s="199">
+      <c r="E27" s="195">
         <f t="shared" ref="E27:E35" si="1">B27*C27*D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="199"/>
-      <c r="G27" s="200"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="153" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="142">
-        <v>0</v>
-      </c>
-      <c r="C28" s="142">
-        <v>0</v>
-      </c>
-      <c r="D28" s="142">
+        <v>8</v>
+      </c>
+      <c r="F27" s="195" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="196"/>
+    </row>
+    <row r="28" spans="1:7" ht="60">
+      <c r="A28" s="150" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="139">
+        <f>7/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="C28" s="139">
+        <v>1</v>
+      </c>
+      <c r="D28" s="139">
         <v>10</v>
       </c>
-      <c r="E28" s="142">
+      <c r="E28" s="139">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="142"/>
-      <c r="G28" s="161"/>
-    </row>
-    <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="198" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" s="199">
-        <v>0</v>
-      </c>
-      <c r="C29" s="199">
-        <v>0</v>
-      </c>
-      <c r="D29" s="199">
+        <v>7</v>
+      </c>
+      <c r="F28" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="233" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="194" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="195">
+        <v>1</v>
+      </c>
+      <c r="C29" s="195">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="195">
         <v>8</v>
       </c>
-      <c r="E29" s="199">
+      <c r="E29" s="195">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="199"/>
-      <c r="G29" s="200"/>
-    </row>
-    <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="153" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="142">
-        <v>0</v>
-      </c>
-      <c r="C30" s="142">
-        <v>0</v>
-      </c>
-      <c r="D30" s="142">
+        <v>4</v>
+      </c>
+      <c r="F29" s="195" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="196"/>
+    </row>
+    <row r="30" spans="1:7" ht="315">
+      <c r="A30" s="150" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="139">
+        <f>9/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="C30" s="139">
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="139">
         <v>10</v>
       </c>
-      <c r="E30" s="142">
+      <c r="E30" s="139">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="142"/>
-      <c r="G30" s="161"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="198" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" s="199">
-        <v>0</v>
-      </c>
-      <c r="C31" s="199">
-        <v>0</v>
-      </c>
-      <c r="D31" s="199">
+        <v>6.75</v>
+      </c>
+      <c r="F30" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="233" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="375">
+      <c r="A31" s="194" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="237">
+        <f>(12-3)/12</f>
+        <v>0.75</v>
+      </c>
+      <c r="C31" s="195">
+        <v>1</v>
+      </c>
+      <c r="D31" s="195">
         <v>12</v>
       </c>
-      <c r="E31" s="199">
+      <c r="E31" s="195">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="199"/>
-      <c r="G31" s="200"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="153" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" s="142">
-        <v>0</v>
-      </c>
-      <c r="C32" s="142">
-        <v>0</v>
-      </c>
-      <c r="D32" s="142">
+        <v>9</v>
+      </c>
+      <c r="F31" s="195" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="236" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="225">
+      <c r="A32" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="139">
+        <f>(10-0.5)/10</f>
+        <v>0.95</v>
+      </c>
+      <c r="C32" s="139">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="139">
         <v>10</v>
       </c>
-      <c r="E32" s="142">
+      <c r="E32" s="139">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="142"/>
-      <c r="G32" s="161"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="198" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="199">
-        <v>0</v>
-      </c>
-      <c r="C33" s="199">
-        <v>0</v>
-      </c>
-      <c r="D33" s="199">
+        <v>7.1249999999999991</v>
+      </c>
+      <c r="F32" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="233" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="270">
+      <c r="A33" s="194" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="195">
+        <f>(4-1)/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="C33" s="195">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="195">
         <v>4</v>
       </c>
-      <c r="E33" s="199">
+      <c r="E33" s="195">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="199"/>
-      <c r="G33" s="200"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="153" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="142">
-        <v>0</v>
-      </c>
-      <c r="C34" s="142">
-        <v>0</v>
-      </c>
-      <c r="D34" s="142">
+        <v>1.5</v>
+      </c>
+      <c r="F33" s="195" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="236" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="270">
+      <c r="A34" s="150" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="139">
+        <f>(10-4)/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="C34" s="139">
+        <v>1</v>
+      </c>
+      <c r="D34" s="139">
         <v>10</v>
       </c>
-      <c r="E34" s="142">
+      <c r="E34" s="139">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="142"/>
-      <c r="G34" s="161"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="153" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="142">
-        <v>0</v>
-      </c>
-      <c r="C35" s="142">
-        <v>0</v>
-      </c>
-      <c r="D35" s="142">
+        <v>6</v>
+      </c>
+      <c r="F34" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="238" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="240">
+      <c r="A35" s="234" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="235">
+        <f>(4-2)/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="235">
+        <v>1</v>
+      </c>
+      <c r="D35" s="235">
         <v>4</v>
       </c>
-      <c r="E35" s="142">
+      <c r="E35" s="235">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="142"/>
-      <c r="G35" s="161"/>
+        <v>2</v>
+      </c>
+      <c r="F35" s="235" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="239" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="166" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167">
+      <c r="A36" s="162" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="163"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163">
         <f>SUM(D26:D35)</f>
         <v>100</v>
       </c>
-      <c r="E36" s="168">
+      <c r="E36" s="164">
         <f>SUM(E26:E35)/D36 + E37*D37 + E38*D38 + E39*D39</f>
+        <v>0.71375</v>
+      </c>
+      <c r="F36" s="164"/>
+      <c r="G36" s="165"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="194" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="197"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="198">
+        <v>-0.15</v>
+      </c>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="199"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="150" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="140"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="141">
+        <v>-0.2</v>
+      </c>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="151"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A39" s="200" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="201"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="202">
+        <v>-0.05</v>
+      </c>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="203"/>
+    </row>
+    <row r="40" spans="1:7" ht="24" thickBot="1">
+      <c r="A40" s="287" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="288"/>
+      <c r="C40" s="288"/>
+      <c r="D40" s="288"/>
+      <c r="E40" s="288"/>
+      <c r="F40" s="288"/>
+      <c r="G40" s="289"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="155" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="290"/>
+      <c r="C41" s="290"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="290"/>
+      <c r="F41" s="290"/>
+      <c r="G41" s="291"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="173" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="174" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="174" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="174" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="175" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="142">
         <v>0</v>
       </c>
-      <c r="F36" s="168"/>
-      <c r="G36" s="169"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="198" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" s="201"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="202">
-        <v>-0.15</v>
-      </c>
-      <c r="E37" s="201"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="203"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="153" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="144">
-        <v>-0.2</v>
-      </c>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="154"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A39" s="204" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="205"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="206">
-        <v>-0.05</v>
-      </c>
-      <c r="E39" s="205"/>
-      <c r="F39" s="205"/>
-      <c r="G39" s="207"/>
-    </row>
-    <row r="40" spans="1:7" ht="24" thickBot="1">
-      <c r="A40" s="278" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="279"/>
-      <c r="C40" s="279"/>
-      <c r="D40" s="279"/>
-      <c r="E40" s="279"/>
-      <c r="F40" s="279"/>
-      <c r="G40" s="280"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="158" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="281"/>
-      <c r="C41" s="281"/>
-      <c r="D41" s="281"/>
-      <c r="E41" s="281"/>
-      <c r="F41" s="281"/>
-      <c r="G41" s="282"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="177" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="178" t="s">
+      <c r="C43" s="142">
+        <v>0</v>
+      </c>
+      <c r="D43" s="142">
         <v>14</v>
       </c>
-      <c r="C42" s="178" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="178" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="178" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="180" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="155" t="s">
-        <v>169</v>
-      </c>
-      <c r="B43" s="145">
-        <v>0</v>
-      </c>
-      <c r="C43" s="145">
-        <v>0</v>
-      </c>
-      <c r="D43" s="145">
-        <v>14</v>
-      </c>
-      <c r="E43" s="145">
+      <c r="E43" s="142">
         <f t="shared" ref="E43:E52" si="2">B43*C43*D43</f>
         <v>0</v>
       </c>
-      <c r="F43" s="145"/>
-      <c r="G43" s="156"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="153"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="174" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="175">
+      <c r="A44" s="170" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="171">
         <v>0</v>
       </c>
-      <c r="C44" s="175">
+      <c r="C44" s="171">
         <v>0</v>
       </c>
-      <c r="D44" s="175">
+      <c r="D44" s="171">
         <v>10</v>
       </c>
-      <c r="E44" s="175">
+      <c r="E44" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44" s="175"/>
-      <c r="G44" s="176"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="172"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="155" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" s="145">
+      <c r="A45" s="152" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="142">
         <v>0</v>
       </c>
-      <c r="C45" s="145">
+      <c r="C45" s="142">
         <v>0</v>
       </c>
-      <c r="D45" s="145">
+      <c r="D45" s="142">
         <v>12</v>
       </c>
-      <c r="E45" s="145">
+      <c r="E45" s="142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F45" s="145"/>
-      <c r="G45" s="156"/>
+      <c r="F45" s="142"/>
+      <c r="G45" s="153"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="174" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46" s="175">
+      <c r="A46" s="170" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="171">
         <v>0</v>
       </c>
-      <c r="C46" s="175">
+      <c r="C46" s="171">
         <v>0</v>
       </c>
-      <c r="D46" s="175">
+      <c r="D46" s="171">
         <v>18</v>
       </c>
-      <c r="E46" s="175">
+      <c r="E46" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F46" s="175"/>
-      <c r="G46" s="176"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="172"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="155" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" s="145">
+      <c r="A47" s="152" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="142">
         <v>0</v>
       </c>
-      <c r="C47" s="145">
+      <c r="C47" s="142">
         <v>0</v>
       </c>
-      <c r="D47" s="145">
+      <c r="D47" s="142">
         <v>16</v>
       </c>
-      <c r="E47" s="145">
+      <c r="E47" s="142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F47" s="145"/>
-      <c r="G47" s="156"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="153"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="174" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="175">
+      <c r="A48" s="170" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="171">
         <v>0</v>
       </c>
-      <c r="C48" s="175">
+      <c r="C48" s="171">
         <v>0</v>
       </c>
-      <c r="D48" s="175">
+      <c r="D48" s="171">
         <v>6</v>
       </c>
-      <c r="E48" s="175">
+      <c r="E48" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F48" s="175"/>
-      <c r="G48" s="176"/>
+      <c r="F48" s="171"/>
+      <c r="G48" s="172"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="155" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="145">
+      <c r="A49" s="152" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="142">
         <v>0</v>
       </c>
-      <c r="C49" s="145">
+      <c r="C49" s="142">
         <v>0</v>
       </c>
-      <c r="D49" s="145">
+      <c r="D49" s="142">
         <v>6</v>
       </c>
-      <c r="E49" s="145">
+      <c r="E49" s="142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="145"/>
-      <c r="G49" s="156"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="153"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="174" t="s">
-        <v>176</v>
-      </c>
-      <c r="B50" s="175">
+      <c r="A50" s="170" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="171">
         <v>0</v>
       </c>
-      <c r="C50" s="175">
+      <c r="C50" s="171">
         <v>0</v>
       </c>
-      <c r="D50" s="175">
+      <c r="D50" s="171">
         <v>6</v>
       </c>
-      <c r="E50" s="175">
+      <c r="E50" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F50" s="175"/>
-      <c r="G50" s="176"/>
+      <c r="F50" s="171"/>
+      <c r="G50" s="172"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="155" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" s="145">
+      <c r="A51" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" s="142">
         <v>0</v>
       </c>
-      <c r="C51" s="145">
+      <c r="C51" s="142">
         <v>0</v>
       </c>
-      <c r="D51" s="145">
+      <c r="D51" s="142">
         <v>8</v>
       </c>
-      <c r="E51" s="145">
+      <c r="E51" s="142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F51" s="145"/>
-      <c r="G51" s="156"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="153"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="174" t="s">
-        <v>178</v>
-      </c>
-      <c r="B52" s="175">
+      <c r="A52" s="170" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="171">
         <v>0</v>
       </c>
-      <c r="C52" s="175">
+      <c r="C52" s="171">
         <v>0</v>
       </c>
-      <c r="D52" s="175">
+      <c r="D52" s="171">
         <v>4</v>
       </c>
-      <c r="E52" s="175">
+      <c r="E52" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F52" s="175"/>
-      <c r="G52" s="176"/>
+      <c r="F52" s="171"/>
+      <c r="G52" s="172"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="162" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163">
+      <c r="A53" s="158" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="159"/>
+      <c r="C53" s="159"/>
+      <c r="D53" s="159">
         <f>SUM(D43:D52)</f>
         <v>100</v>
       </c>
-      <c r="E53" s="164">
+      <c r="E53" s="160">
         <f>SUM(E43:E52)/D53 + D54*E54  + D55*E55 + D56*E56</f>
         <v>0</v>
       </c>
-      <c r="F53" s="164"/>
-      <c r="G53" s="165"/>
+      <c r="F53" s="160"/>
+      <c r="G53" s="161"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="174" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="182">
+      <c r="A54" s="170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="177"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="178">
         <v>-0.15</v>
       </c>
-      <c r="E54" s="181"/>
-      <c r="F54" s="181"/>
-      <c r="G54" s="183"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="177"/>
+      <c r="G54" s="179"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55" s="146"/>
-      <c r="C55" s="146"/>
-      <c r="D55" s="147">
+      <c r="A55" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="144">
         <v>-0.2</v>
       </c>
-      <c r="E55" s="146"/>
-      <c r="F55" s="146"/>
-      <c r="G55" s="157"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="143"/>
+      <c r="G55" s="154"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A56" s="184" t="s">
-        <v>168</v>
-      </c>
-      <c r="B56" s="185"/>
-      <c r="C56" s="185"/>
-      <c r="D56" s="186">
+      <c r="A56" s="180" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="182">
         <v>-0.05</v>
       </c>
-      <c r="E56" s="185"/>
-      <c r="F56" s="185"/>
-      <c r="G56" s="187"/>
+      <c r="E56" s="181"/>
+      <c r="F56" s="181"/>
+      <c r="G56" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5689,6 +6170,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5820,15 +6310,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5836,11 +6317,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Equipe303.xlsx
+++ b/Equipe303.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24818"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF3AF6E8-26AA-424D-BEFC-38D60A83CA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{659BDE79-067E-440A-A919-85D3C4F4DB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="234">
   <si>
     <t>Fonct.</t>
   </si>
@@ -121,6 +121,11 @@
 -0.5 ModalUserVsPlayerComponent</t>
   </si>
   <si>
+    <t>-0.5 Client:UserService
+-0.5 Server:SocketManagerService
+-1 Client:SidebarComponent</t>
+  </si>
+  <si>
     <t>1.2 Nom</t>
   </si>
   <si>
@@ -134,6 +139,9 @@
   <si>
     <t>-0 Client:EaselObject, pas besoin du Object
 -0 Server:GameObject, pas besoin du Object</t>
+  </si>
+  <si>
+    <t>-0.5 ViewModalComponent</t>
   </si>
   <si>
     <t>1.3 Attributs</t>
@@ -162,6 +170,10 @@
 Client:reserverService:size</t>
   </si>
   <si>
+    <t>-0.25 Client:TimeService.timeMultiplayer
+-0.25 Client:UserService.getIsUserResetDataObs</t>
+  </si>
+  <si>
     <t>1.4 Accessibilité</t>
   </si>
   <si>
@@ -210,6 +222,14 @@
 -0.2 Server:ValidateWordService</t>
   </si>
   <si>
+    <t>-0.2 Client:CreateMultiPlayerGameComponent
+-0.2 Client:JoinMultiPlayerGameComponent
+-0 Client:SoloGameComponent
+-0 Client:ModalScoresComponent
+-0 Client:GamePageComponent
+-0.2 Client:PlayAreaComponent</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -232,6 +252,10 @@
     <t>warning: findNextEmptyTile() retourne un booleen 
 -0.25: virtual-player.service.ts: caclculateGeneratedWordPoints()
 -0.25: socket-manager.service.ts : initiliaseSocket()</t>
+  </si>
+  <si>
+    <t>-0.25 DialogUpdatePlayerComponent - doAction()
+-1 Eviter d'utiliser des abreviations comme nom de fonction.</t>
   </si>
   <si>
     <t>2.2 Utilité</t>
@@ -249,6 +273,9 @@
     <t>-0.5 user.service.ts: detectSkipTurnBtn() retourne toujour true!</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.5 ValidWordService: readWordsAndGivePointsIfValid() </t>
+  </si>
+  <si>
     <t>2.3 Nombre de paramètres</t>
   </si>
   <si>
@@ -260,6 +287,11 @@
   </si>
   <si>
     <t>-0.5 valid-word.service.ts:274</t>
+  </si>
+  <si>
+    <t>-0.5: ValidWordService : checkSides() checkBottomTopSide()
+-0.5 VirtualPlayerService: findValidWord()
+-1.5 WordPointService : Multiple functions</t>
   </si>
   <si>
     <t>2.4 Fonction pure</t>
@@ -305,6 +337,12 @@
 ngOnDestroy() { this.sizeSub.unsubscribe() }</t>
   </si>
   <si>
+    <t>-0.25 Client:CreateMultiPlayerGameComponent.subscribe
+-0.25 Client:JoinMultiplayerGameComponent.subscribe
+-0.25 Client:SoloGameComponent.subscribe
+-0.25 Client:ModelScoresComponent.subscribe</t>
+  </si>
+  <si>
     <t>4. Variables</t>
   </si>
   <si>
@@ -334,6 +372,9 @@
   <si>
     <t>-0.5 letter.ts:3
 -0.5 valid-word.service.ts:50 (lett)</t>
+  </si>
+  <si>
+    <t>-2 beaucoup de typo dans le code (interface, nom des variables...)</t>
   </si>
   <si>
     <t>5. Expression booléennes</t>
@@ -369,6 +410,10 @@
   <si>
     <t>-0 Client:VrUserComponent:32
 -0.25 Client:MessageService:55, 63</t>
+  </si>
+  <si>
+    <t>-0.25 Client:VrUserComponent:32
+-0.25 Client:MessageService:60</t>
   </si>
   <si>
     <t>5.3 Opérateurs ternaires</t>
@@ -390,6 +435,10 @@
 -0.25 Server:GameObject</t>
   </si>
   <si>
+    <t>-0.25 Client:AdminPageComponent:312
+-0.25 Client:LettersService:44</t>
+  </si>
+  <si>
     <t>5.4 Prédicats</t>
   </si>
   <si>
@@ -407,6 +456,17 @@
 -0 Client:RealPlayerComponent:26
 -0.25 Client:LetterService
 -0.25 Client:MouseHandlingService:84</t>
+  </si>
+  <si>
+    <t>-0.25 Client:SidebarComponent:151
+-0.25 Client:PlayAreaComponent:189
+-0.25 Client:Sidebarcomponent:225
+-0.25 Client:LettersService 4x
+-0.25 Client:MouseHandelingService:79, 94, 123
+-0.25 Client:ObjectifManagerService:66, 160, 166
+-0.25 Client:ValidWordService
+-0.25 Client:VirtualPlayerService:306, 311
+-0.25 Server:SocketManagerService:217</t>
   </si>
   <si>
     <t>6. Qualité générale</t>
@@ -446,6 +506,13 @@
 .........</t>
   </si>
   <si>
+    <t>-0.5 AdminPageComponent : espacement
+-0.5 GamePageComponent: espacement
+-0.5 PlayAreaComponent: espacement
+-0.5 SidebarComponent: espacement
+Note: Vous devez prendre les ffedback en cosideration</t>
+  </si>
+  <si>
     <t>6.4 Langue de programmation</t>
   </si>
   <si>
@@ -508,6 +575,12 @@
     <t>-1: sidebar.componernt.ts:148
 -3:  grid.service.ts:137,167,181
 -1 word-point.service.ts:12</t>
+  </si>
+  <si>
+    <t>-0.75 : Easel-logistic.service : moveLeft(), moveRight()
+-0.75 : MouseHandelingService : moveLeft(), moveRight
+-0.5 : UserService : chooseRandomNameBeg(), chooseRandomNameExp()
+- 1: ValidWordService : checkSides() checkBottomTopSide()</t>
   </si>
   <si>
     <t>6.9 ESLint</t>
@@ -554,6 +627,14 @@
 }</t>
   </si>
   <si>
+    <t>-0.5 AdminPageComponent : updateRowData()
+-1 mouse-handling.service.ts:147
+-0.5 MultiPLayerModeService: play()
+-0 warning: ObjectifManagerService: verifyObjectifs()
+-1 ValidWordService: generateRegEx(), generateAllWordsPossible()
+-1.5 VirtualPlayerService: manageVrPlayerActions(), findValidWord()</t>
+  </si>
+  <si>
     <t>6.11 Performance</t>
   </si>
   <si>
@@ -573,6 +654,9 @@
   </si>
   <si>
     <t>Mauvaise branche. La branche de remise doit être celle sur laquelle vous faites vos MR.</t>
+  </si>
+  <si>
+    <t>-1 mauvaise branche</t>
   </si>
   <si>
     <t>7.2 Commit</t>
@@ -609,6 +693,9 @@
   </si>
   <si>
     <t>-2 beaucoup de merge requests merged sans être approuvées</t>
+  </si>
+  <si>
+    <t>-2 les merge requests semblent être vers des branches de features et non vers votre branche de développement</t>
   </si>
   <si>
     <t>7.5 Fichiers</t>
@@ -903,31 +990,96 @@
     <t>3.1 Meilleurs scores</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.5 Le score n'est pas calculer en retirant la somme des valeurs present dans le chevalet a la fin </t>
+  </si>
+  <si>
     <t>3.2 Mode admin</t>
   </si>
   <si>
     <t>3.3. Joueur virtuel expert</t>
   </si>
   <si>
+    <t>- Fonctionnalité -
+1. Possible de sélectionner JV expert lors de l'initialisation: Oui  2. Nom du JV choisi dans une liste de 3: Oui  3. Liste différente pour chaque mode de jeu: Oui  4. Le JV à un nom différent du joueur: Possible de choisir Martin1234  5. JV expert fonctionnel: Oui 6. Le JV place, saute son tour et échange: Oui 7. Le JV choisit le placement qui rapporte le maximum de points: Oui 8. Le JV échange toutes ses lettres s'il ne peut pas faire un placement:  Impossible à vérifier, votre JV est trop fort :) 9. Le JV échange le plus de lettres possible si la réserve contient oins que 7 lettres:  Impossible à vérifier, votre JV est trop fort :) 10. Les points son bien calculés: Oui  11. Le JV joue après 3 secondes: Oui 12. Le JV passe son tour après 20 secondes: Oui 13. Toutes les actions du JV sont affichées dans la boite de communication: Oui 14. Le système affiche 3 possibilités de placement lorsque l'affichage de débogage est activé seulement si le joueur fait un placement: Oui 15. L'affichage des possibilités est en ordre décroissant: Oui 16. Respect du format d'affichage (1er ligne:toutes les lettres XY:L, pointage à la fin, 2e ligne: tous les mots formés par ce placement): Non
+- Test - 
+-- Client -- OK
+-- Server -- N/A</t>
+  </si>
+  <si>
     <t>3.4 Mode LOG2990 - Objectifs publics</t>
   </si>
   <si>
+    <t>- Fonctionnalité -
+1. LOG2990 en solo et multijoueur: Oui
+2. 8 objectifs différents: Oui
+3. Affichage des 2 objectifs publics: Oui
+4. Sélection aléatoire des objectifs publics: Oui
+5. Les objectifs privés sont différents: Oui
+6. Seulement possible de compléter l'objectif 1 fois: Oui
+7. Bon pointage: Oui
+8. JV peut compléter un objectif: Oui
+9. Les 2 joueurs peuvent compléter l'objectif: Oui
+10. Affichage de l'objectif comme étant complété: Oui
+- Test - 
+-- Client -- OK
+-- Server -- N/A</t>
+  </si>
+  <si>
     <t>3.5 Mode LOG2990 - Objectifs privés</t>
   </si>
   <si>
+    <t>- Fonctionnalité - 
+1. LOG2990 en solo et multijoueur: Oui
+2. 8 objectifs différents: Oui
+3. Affichage de 1 objectif privé: Oui
+4. Sélection aléatoire de l'objectif privé: Oui
+5. Les objectifs privés sont différents: Oui
+6. Seulement possible de compléter l'objectif 1 fois: Oui
+7. Bon pointage: Oui
+8. JV peut compléter un objectif: Oui
+9. Affichage de l'objectif aux 2 joueurs lorsque l'objectif est complété: Oui
+- Test - 
+idem public</t>
+  </si>
+  <si>
     <t>3.6 Placement aléatoire dans une partie</t>
   </si>
   <si>
+    <t>-1 Impossible de lancer une partie  multijoueur si on annule la creation d'une partie multijoueur</t>
+  </si>
+  <si>
     <t>3.7 Téléverser un nouveau dictionnaire</t>
   </si>
   <si>
     <t>3.8 Paramètres de partie (dictionnaire)</t>
   </si>
   <si>
+    <t>-1 Possible de lancer la partie avec un dictionaire invalide
+-1 Un dictionaire present est marquer comme supprimer</t>
+  </si>
+  <si>
     <t>3.9 Abandonner une partie multijoueur</t>
   </si>
   <si>
     <t>3.10 Commande aide</t>
+  </si>
+  <si>
+    <t>- Fonctionnalité -
+1. !aide fonctionne: Oui
+2. Affichage seulement pour le jouer qui a fait la commande: Oui
+- Test -
+-- Client -- OK
+-- Server -- N/A</t>
+  </si>
+  <si>
+    <t>Crash quand on reinitialise les parametres avec le mode admin
+- Crash quand un dictionaire invalide est selectionner pour commencer la partie
+- Besoin de repartir le serveur apres avoir annuler une partie multijoueur pour pouvoir rejouer.
+- J'ai du créer un répertoire dictionnaries et importer mon propre dictionnaire dans le code pour faire fonctionner en local</t>
+  </si>
+  <si>
+    <t>- La salle d'attente ne se met pas a jour apres avoir annuler une partie
+- J'essai de placer un s à la fin d'un mot déjà placé et j'ai un message d'erreur que le mot n'est pas valide alors qu'il l'est.</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1922,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1919,9 +2071,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1976,9 +2125,6 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2124,28 +2270,10 @@
     <xf numFmtId="49" fontId="16" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2223,9 +2351,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2298,9 +2423,6 @@
     <xf numFmtId="9" fontId="0" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2309,9 +2431,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="18" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2477,6 +2596,45 @@
     <xf numFmtId="49" fontId="0" fillId="26" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2659,9 +2817,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3055,7 +3210,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3068,7 +3223,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="216"/>
+      <c r="A3" s="205"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -3078,7 +3233,7 @@
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="206" t="s">
+      <c r="E3" s="195" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -3089,18 +3244,18 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="208">
+      <c r="B4" s="197">
         <f>(Fonctionnalités!E20)</f>
         <v>0.54375000000000007</v>
       </c>
-      <c r="C4" s="209">
+      <c r="C4" s="198">
         <f>'Assurance Qualité'!C61</f>
         <v>0.46250000000000002</v>
       </c>
-      <c r="D4" s="209">
+      <c r="D4" s="198">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
         <v>0.51125000000000009</v>
       </c>
@@ -3113,51 +3268,51 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="211">
+      <c r="B5" s="200">
         <f>(Fonctionnalités!E36)</f>
         <v>0.71375</v>
       </c>
-      <c r="C5" s="212">
+      <c r="C5" s="201">
         <f>'Assurance Qualité'!F61</f>
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="D5" s="212">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D5" s="201">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.70544999999999991</v>
+        <v>0.70584999999999998</v>
       </c>
       <c r="F5" s="13">
         <v>25</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>17.636249999999997</v>
+        <v>17.646249999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="213" t="s">
+      <c r="A6" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="214">
+      <c r="B6" s="203">
         <f>(Fonctionnalités!E53)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="215">
+        <v>0.75625000000000009</v>
+      </c>
+      <c r="C6" s="204">
         <f>'Assurance Qualité'!I61</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="215">
+        <v>0.69900000000000007</v>
+      </c>
+      <c r="D6" s="204">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.73335000000000006</v>
       </c>
       <c r="F6" s="13">
         <v>20</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.667000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3166,13 +3321,15 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14">
+        <v>0.8</v>
+      </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3185,8 +3342,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="H54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3194,96 +3351,96 @@
     <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="77.5703125" style="17" customWidth="1"/>
     <col min="3" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="19" style="17" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="45.85546875" style="17" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="56.5703125" style="17" customWidth="1"/>
     <col min="12" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="16" width="15.7109375" customWidth="1"/>
     <col min="17" max="1029" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="262" t="s">
+      <c r="A4" s="264" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="262"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="262"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="262"/>
-      <c r="H4" s="262"/>
-      <c r="I4" s="262"/>
-      <c r="J4" s="262"/>
-      <c r="K4" s="262"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="19.5" thickBot="1">
       <c r="A5" s="18"/>
-      <c r="B5" s="217"/>
+      <c r="B5" s="206"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="217"/>
+      <c r="E5" s="206"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="217"/>
+      <c r="H5" s="206"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="217"/>
+      <c r="K5" s="206"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="266" t="s">
+      <c r="B6" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="256" t="s">
+      <c r="C6" s="258" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="257"/>
-      <c r="E6" s="257"/>
-      <c r="F6" s="258" t="s">
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="259"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="263" t="s">
+      <c r="G6" s="261"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="265" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="264"/>
-      <c r="K6" s="265"/>
+      <c r="J6" s="266"/>
+      <c r="K6" s="267"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="253"/>
-      <c r="P6" s="253"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="255"/>
+      <c r="P6" s="255"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A7" s="255"/>
-      <c r="B7" s="267"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
@@ -3313,54 +3470,54 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="216"/>
-      <c r="P7" s="216"/>
-      <c r="Q7" s="216"/>
+      <c r="N7" s="205"/>
+      <c r="O7" s="205"/>
+      <c r="P7" s="205"/>
+      <c r="Q7" s="205"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="244" t="s">
+      <c r="A8" s="246" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="245"/>
-      <c r="C8" s="240" t="s">
+      <c r="B8" s="247"/>
+      <c r="C8" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="241"/>
-      <c r="E8" s="57" t="s">
+      <c r="D8" s="243"/>
+      <c r="E8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="240" t="s">
+      <c r="F8" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="241"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="240" t="s">
+      <c r="G8" s="243"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="241"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="150">
-      <c r="A9" s="75" t="s">
+    <row r="9" spans="1:17" ht="96.75" customHeight="1">
+      <c r="A9" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="229">
+      <c r="C9" s="218">
         <f>(3-5*0.5)/3</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="D9" s="47">
         <v>3</v>
       </c>
-      <c r="E9" s="227" t="s">
+      <c r="E9" s="216" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="231">
+      <c r="F9" s="220">
         <f>(3-5*0.5)/3</f>
         <v>0.16666666666666666</v>
       </c>
@@ -3370,20 +3527,25 @@
       <c r="H9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="52"/>
+      <c r="I9" s="230">
+        <f>(3-2)/3</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="J9" s="49">
         <v>3</v>
       </c>
-      <c r="K9" s="50"/>
+      <c r="K9" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="45">
       <c r="A10" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="35">
         <f>2/2</f>
@@ -3393,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="37">
         <f>2/2</f>
@@ -3403,34 +3565,39 @@
         <v>2</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="39"/>
+        <v>27</v>
+      </c>
+      <c r="I10" s="39">
+        <f>(2-0.5)/2</f>
+        <v>0.75</v>
+      </c>
       <c r="J10" s="34">
         <v>2</v>
       </c>
-      <c r="K10" s="40"/>
+      <c r="K10" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="180">
+    <row r="11" spans="1:17" ht="99" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="225">
+        <v>30</v>
+      </c>
+      <c r="C11" s="214">
         <f>(3-1.5)/3</f>
         <v>0.5</v>
       </c>
       <c r="D11" s="32">
         <v>3</v>
       </c>
-      <c r="E11" s="228" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="232">
+      <c r="E11" s="217" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="221">
         <f>(3-0.25)/3</f>
         <v>0.91666666666666663</v>
       </c>
@@ -3438,22 +3605,27 @@
         <v>3</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="39"/>
+        <v>32</v>
+      </c>
+      <c r="I11" s="231">
+        <f>(3-2*0.25)/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="J11" s="34">
         <v>3</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:17" ht="75">
       <c r="A12" s="21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" s="35">
         <f>(2-4*0.25)/2</f>
@@ -3463,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F12" s="37">
         <v>0.85</v>
@@ -3472,9 +3644,12 @@
         <v>2</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="39"/>
+        <v>37</v>
+      </c>
+      <c r="I12" s="39">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="J12" s="34">
         <v>2</v>
       </c>
@@ -3482,14 +3657,14 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="207" customHeight="1">
+    <row r="13" spans="1:17" ht="105.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="225">
+        <v>39</v>
+      </c>
+      <c r="C13" s="214">
         <f>(4-3.5)/4</f>
         <v>0.125</v>
       </c>
@@ -3497,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F13" s="37">
         <f>(4-12*0.2)/4</f>
@@ -3507,116 +3682,126 @@
         <v>4</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="39"/>
+        <v>41</v>
+      </c>
+      <c r="I13" s="39">
+        <f>(4-3*0.2)/4</f>
+        <v>0.85</v>
+      </c>
       <c r="J13" s="34">
         <v>4</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40" t="s">
+        <v>42</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:17" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="242" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="243"/>
-      <c r="C14" s="84">
+    <row r="14" spans="1:17" s="92" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A14" s="244" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="245"/>
+      <c r="C14" s="82">
         <f>SUMPRODUCT(C9:C13,D9:D13)</f>
         <v>5.5</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="83">
         <f>SUM(D9:D13)</f>
         <v>14</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87">
+      <c r="E14" s="84"/>
+      <c r="F14" s="85">
         <f>SUMPRODUCT(F9:F13,G9:G13)</f>
         <v>8.5500000000000007</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="86">
         <f>SUM(G9:G13)</f>
         <v>14</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90">
+      <c r="H14" s="87"/>
+      <c r="I14" s="88">
         <f>SUMPRODUCT(I9:I13,J9:J13)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="91">
+        <v>10.4</v>
+      </c>
+      <c r="J14" s="89">
         <f>SUM(J9:J13)</f>
         <v>14</v>
       </c>
-      <c r="K14" s="92"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="249" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="250"/>
-      <c r="C15" s="240" t="s">
+      <c r="A15" s="251" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="252"/>
+      <c r="C15" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="241"/>
-      <c r="E15" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="240" t="s">
+      <c r="D15" s="243"/>
+      <c r="E15" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="241"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="240" t="s">
+      <c r="G15" s="243"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="241"/>
-      <c r="K15" s="57"/>
+      <c r="J15" s="243"/>
+      <c r="K15" s="56"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:17" ht="60">
-      <c r="A16" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="59">
+    <row r="16" spans="1:17" ht="90">
+      <c r="A16" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="58">
         <v>0</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="59">
         <v>2</v>
       </c>
-      <c r="E16" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="65">
+      <c r="E16" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="64">
         <f>1.5/2</f>
         <v>0.75</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="65">
         <v>2</v>
       </c>
-      <c r="H16" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72">
+      <c r="H16" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="241">
+        <f>0.75/2</f>
+        <v>0.375</v>
+      </c>
+      <c r="J16" s="70">
         <v>2</v>
       </c>
-      <c r="K16" s="73"/>
+      <c r="K16" s="71" t="s">
+        <v>50</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="60">
+    <row r="17" spans="1:13" ht="165">
       <c r="A17" s="21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C17" s="45">
         <v>0</v>
@@ -3624,33 +3809,38 @@
       <c r="D17" s="41">
         <v>3</v>
       </c>
-      <c r="E17" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="230">
+      <c r="E17" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="219">
         <f>2.5/3</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="G17" s="42">
         <v>3</v>
       </c>
-      <c r="H17" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="74"/>
+      <c r="H17" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="232">
+        <f>2.5/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="J17" s="44">
         <v>3</v>
       </c>
-      <c r="K17" s="46"/>
+      <c r="K17" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="45">
       <c r="A18" s="21" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C18" s="45">
         <f>2.5/3</f>
@@ -3659,33 +3849,38 @@
       <c r="D18" s="41">
         <v>3</v>
       </c>
-      <c r="E18" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="230">
+      <c r="E18" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="219">
         <f>2.5/3</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="G18" s="42">
         <v>3</v>
       </c>
-      <c r="H18" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="74"/>
+      <c r="H18" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="232">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="J18" s="44">
         <v>3</v>
       </c>
-      <c r="K18" s="46"/>
+      <c r="K18" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="21" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C19" s="45">
         <v>1</v>
@@ -3693,15 +3888,17 @@
       <c r="D19" s="41">
         <v>3</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="68">
+      <c r="E19" s="61"/>
+      <c r="F19" s="67">
         <v>1</v>
       </c>
       <c r="G19" s="42">
         <v>3</v>
       </c>
-      <c r="H19" s="69"/>
-      <c r="I19" s="74"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="72">
+        <v>1</v>
+      </c>
       <c r="J19" s="44">
         <v>3</v>
       </c>
@@ -3711,10 +3908,10 @@
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="21" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C20" s="45">
         <v>1</v>
@@ -3722,15 +3919,17 @@
       <c r="D20" s="41">
         <v>2</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="68">
+      <c r="E20" s="61"/>
+      <c r="F20" s="67">
         <v>1</v>
       </c>
       <c r="G20" s="42">
         <v>2</v>
       </c>
-      <c r="H20" s="69"/>
-      <c r="I20" s="74"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="72">
+        <v>1</v>
+      </c>
       <c r="J20" s="44">
         <v>2</v>
       </c>
@@ -3738,103 +3937,106 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A21" s="251" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="248"/>
-      <c r="C21" s="95">
+    <row r="21" spans="1:13" s="92" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A21" s="253" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="250"/>
+      <c r="C21" s="93">
         <f>SUMPRODUCT(C16:C20,D16:D20)</f>
         <v>7.5</v>
       </c>
-      <c r="D21" s="96">
+      <c r="D21" s="94">
         <f>SUM(D16:D20)</f>
         <v>13</v>
       </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98">
+      <c r="E21" s="95"/>
+      <c r="F21" s="96">
         <f>SUMPRODUCT(F16:F20,G16:G20)</f>
         <v>11.5</v>
       </c>
-      <c r="G21" s="99">
+      <c r="G21" s="97">
         <f>SUM(G16:G20)</f>
         <v>13</v>
       </c>
-      <c r="H21" s="100"/>
-      <c r="I21" s="101">
+      <c r="H21" s="98"/>
+      <c r="I21" s="99">
         <f>SUMPRODUCT(I16:I20,J16:J20)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="102">
+        <v>8.75</v>
+      </c>
+      <c r="J21" s="100">
         <f>SUM(J16:J20)</f>
         <v>13</v>
       </c>
-      <c r="K21" s="103"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="244" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="245"/>
-      <c r="C22" s="240" t="s">
+      <c r="A22" s="246" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="247"/>
+      <c r="C22" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="241"/>
-      <c r="E22" s="57" t="s">
+      <c r="D22" s="243"/>
+      <c r="E22" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="240" t="s">
+      <c r="F22" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="241"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="240" t="s">
+      <c r="G22" s="243"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="241"/>
-      <c r="K22" s="57"/>
+      <c r="J22" s="243"/>
+      <c r="K22" s="56"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="60">
-      <c r="A23" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="81">
+      <c r="A23" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="79">
         <f>2/2</f>
         <v>1</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <v>2</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="106">
+      <c r="E23" s="81"/>
+      <c r="F23" s="104">
         <f>2/2</f>
         <v>1</v>
       </c>
-      <c r="G23" s="107">
+      <c r="G23" s="105">
         <v>2</v>
       </c>
-      <c r="H23" s="108"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="112">
+      <c r="H23" s="106"/>
+      <c r="I23" s="109">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="110">
         <v>2</v>
       </c>
-      <c r="K23" s="113"/>
+      <c r="K23" s="111"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" ht="90">
-      <c r="A24" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="80" t="s">
-        <v>62</v>
+      <c r="A24" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>69</v>
       </c>
       <c r="C24" s="45">
         <f>(1-3*0.25)/1</f>
@@ -3843,18 +4045,21 @@
       <c r="D24" s="41">
         <v>1</v>
       </c>
-      <c r="E24" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="68">
+      <c r="E24" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="67">
         <f>1/1</f>
         <v>1</v>
       </c>
       <c r="G24" s="42">
         <v>1</v>
       </c>
-      <c r="H24" s="69"/>
-      <c r="I24" s="74"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="72">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="J24" s="44">
         <v>1</v>
       </c>
@@ -3862,12 +4067,12 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" ht="60">
-      <c r="A25" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="80" t="s">
-        <v>65</v>
+    <row r="25" spans="1:13" ht="105">
+      <c r="A25" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>72</v>
       </c>
       <c r="C25" s="45">
         <v>1</v>
@@ -3875,120 +4080,127 @@
       <c r="D25" s="41">
         <v>1</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="68">
+      <c r="E25" s="61"/>
+      <c r="F25" s="67">
         <f>0/1</f>
         <v>0</v>
       </c>
       <c r="G25" s="42">
         <v>1</v>
       </c>
-      <c r="H25" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="74"/>
+      <c r="H25" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="72">
+        <f>0/1</f>
+        <v>0</v>
+      </c>
       <c r="J25" s="44">
         <v>1</v>
       </c>
-      <c r="K25" s="46"/>
+      <c r="K25" s="46" t="s">
+        <v>74</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A26" s="247" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="248"/>
-      <c r="C26" s="84">
+    <row r="26" spans="1:13" s="92" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A26" s="249" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="250"/>
+      <c r="C26" s="82">
         <f>SUMPRODUCT(C23:C25,D23:D25)</f>
         <v>3.25</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="83">
         <f>SUM(D23:D25)</f>
         <v>4</v>
       </c>
-      <c r="E26" s="86"/>
-      <c r="F26" s="98">
+      <c r="E26" s="84"/>
+      <c r="F26" s="96">
         <f>SUMPRODUCT(F23:F25,G23:G25)</f>
         <v>3</v>
       </c>
-      <c r="G26" s="99">
+      <c r="G26" s="97">
         <f>SUM(G23:G25)</f>
         <v>4</v>
       </c>
-      <c r="H26" s="100"/>
-      <c r="I26" s="101">
+      <c r="H26" s="98"/>
+      <c r="I26" s="99">
         <f>SUMPRODUCT(I23:I25,J23:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="102">
+        <v>3</v>
+      </c>
+      <c r="J26" s="100">
         <f>SUM(J23:J25)</f>
         <v>4</v>
       </c>
-      <c r="K26" s="103"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="244" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="245"/>
-      <c r="C27" s="240" t="s">
+      <c r="A27" s="246" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="247"/>
+      <c r="C27" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="241"/>
-      <c r="E27" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="240" t="s">
+      <c r="D27" s="243"/>
+      <c r="E27" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="241"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="240" t="s">
+      <c r="G27" s="243"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="241"/>
-      <c r="K27" s="57"/>
+      <c r="J27" s="243"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="16"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="45">
-      <c r="A28" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="118" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="109">
-        <v>1</v>
-      </c>
-      <c r="D28" s="58">
+      <c r="A28" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="107">
+        <v>1</v>
+      </c>
+      <c r="D28" s="57">
         <v>2</v>
       </c>
-      <c r="E28" s="110"/>
-      <c r="F28" s="104">
-        <v>1</v>
-      </c>
-      <c r="G28" s="63">
+      <c r="E28" s="108"/>
+      <c r="F28" s="102">
+        <v>1</v>
+      </c>
+      <c r="G28" s="62">
         <v>2</v>
       </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="70">
+      <c r="H28" s="63"/>
+      <c r="I28" s="113">
+        <v>1</v>
+      </c>
+      <c r="J28" s="69">
         <v>2</v>
       </c>
-      <c r="K28" s="116"/>
+      <c r="K28" s="114"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" ht="30">
-      <c r="A29" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>71</v>
+      <c r="A29" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>79</v>
       </c>
       <c r="C29" s="45">
         <v>1</v>
@@ -3996,15 +4208,17 @@
       <c r="D29" s="41">
         <v>2</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="68">
+      <c r="E29" s="61"/>
+      <c r="F29" s="67">
         <v>1</v>
       </c>
       <c r="G29" s="42">
         <v>2</v>
       </c>
       <c r="H29" s="43"/>
-      <c r="I29" s="74"/>
+      <c r="I29" s="72">
+        <v>1</v>
+      </c>
       <c r="J29" s="44">
         <v>2</v>
       </c>
@@ -4014,10 +4228,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>81</v>
       </c>
       <c r="C30" s="45">
         <v>1</v>
@@ -4025,15 +4239,17 @@
       <c r="D30" s="41">
         <v>2</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="68">
+      <c r="E30" s="61"/>
+      <c r="F30" s="67">
         <v>1</v>
       </c>
       <c r="G30" s="42">
         <v>2</v>
       </c>
       <c r="H30" s="43"/>
-      <c r="I30" s="74"/>
+      <c r="I30" s="72">
+        <v>1</v>
+      </c>
       <c r="J30" s="44">
         <v>2</v>
       </c>
@@ -4041,12 +4257,12 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" ht="60">
+    <row r="31" spans="1:13" ht="75">
       <c r="A31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="C31" s="45">
         <v>0</v>
@@ -4054,125 +4270,133 @@
       <c r="D31" s="41">
         <v>3</v>
       </c>
-      <c r="E31" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="68">
+      <c r="E31" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="67">
         <v>1</v>
       </c>
       <c r="G31" s="42">
         <v>3</v>
       </c>
       <c r="H31" s="43"/>
-      <c r="I31" s="74"/>
+      <c r="I31" s="232">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="J31" s="44">
         <v>3</v>
       </c>
-      <c r="K31" s="46"/>
+      <c r="K31" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A32" s="242" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="243"/>
-      <c r="C32" s="84">
+    <row r="32" spans="1:13" s="92" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A32" s="244" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="245"/>
+      <c r="C32" s="82">
         <f>SUMPRODUCT(C28:C31,D28:D31)</f>
         <v>6</v>
       </c>
-      <c r="D32" s="85">
+      <c r="D32" s="83">
         <f>SUM(D28:D31)</f>
         <v>9</v>
       </c>
-      <c r="E32" s="86"/>
-      <c r="F32" s="87">
+      <c r="E32" s="84"/>
+      <c r="F32" s="85">
         <f>SUMPRODUCT(F28:F31,G28:G31)</f>
         <v>9</v>
       </c>
-      <c r="G32" s="88">
+      <c r="G32" s="86">
         <f>SUM(G28:G31)</f>
         <v>9</v>
       </c>
-      <c r="H32" s="114"/>
-      <c r="I32" s="101">
+      <c r="H32" s="112"/>
+      <c r="I32" s="99">
         <f>SUMPRODUCT(I28:I31,J28:J31)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="102">
+        <v>7</v>
+      </c>
+      <c r="J32" s="100">
         <f>SUM(J28:J31)</f>
         <v>9</v>
       </c>
-      <c r="K32" s="103"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="244" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="246"/>
-      <c r="C33" s="240" t="s">
+      <c r="A33" s="246" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="248"/>
+      <c r="C33" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="241"/>
-      <c r="E33" s="57" t="s">
+      <c r="D33" s="243"/>
+      <c r="E33" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="240" t="s">
+      <c r="F33" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="241"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="55" t="s">
+      <c r="G33" s="243"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="56"/>
-      <c r="K33" s="57"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
       <c r="L33" s="15"/>
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="75">
-      <c r="A34" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="109">
+      <c r="A34" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="107">
         <f>(1-1)/1</f>
         <v>0</v>
       </c>
-      <c r="D34" s="58">
-        <v>1</v>
-      </c>
-      <c r="E34" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="104">
+      <c r="D34" s="57">
+        <v>1</v>
+      </c>
+      <c r="E34" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="102">
         <f>(1-2*0.25)/1</f>
         <v>0.5</v>
       </c>
-      <c r="G34" s="63">
-        <v>1</v>
-      </c>
-      <c r="H34" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" s="115"/>
-      <c r="J34" s="70">
-        <v>1</v>
-      </c>
-      <c r="K34" s="116"/>
+      <c r="G34" s="62">
+        <v>1</v>
+      </c>
+      <c r="H34" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="113">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="69">
+        <v>1</v>
+      </c>
+      <c r="K34" s="114"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" ht="30">
-      <c r="A35" s="53" t="s">
-        <v>82</v>
+    <row r="35" spans="1:13" ht="75">
+      <c r="A35" s="52" t="s">
+        <v>91</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C35" s="45">
         <f>(1-2*0.25)/1</f>
@@ -4181,33 +4405,38 @@
       <c r="D35" s="41">
         <v>1</v>
       </c>
-      <c r="E35" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="68">
+      <c r="E35" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="67">
         <f>(1-0.25)/1</f>
         <v>0.75</v>
       </c>
       <c r="G35" s="42">
         <v>1</v>
       </c>
-      <c r="H35" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" s="74"/>
+      <c r="H35" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="72">
+        <f>(1-2*0.25)/1</f>
+        <v>0.5</v>
+      </c>
       <c r="J35" s="44">
         <v>1</v>
       </c>
-      <c r="K35" s="46"/>
+      <c r="K35" s="46" t="s">
+        <v>95</v>
+      </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="105">
       <c r="A36" s="21" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C36" s="45">
         <v>0</v>
@@ -4215,33 +4444,38 @@
       <c r="D36" s="41">
         <v>3</v>
       </c>
-      <c r="E36" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="230">
+      <c r="E36" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="219">
         <f>(3-7*0.25)/3</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="G36" s="42">
         <v>3</v>
       </c>
-      <c r="H36" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="I36" s="74"/>
+      <c r="H36" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="232">
+        <f>(3-2*0.25)/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="J36" s="44">
         <v>3</v>
       </c>
-      <c r="K36" s="46"/>
+      <c r="K36" s="46" t="s">
+        <v>100</v>
+      </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="75">
+    <row r="37" spans="1:13" ht="135">
       <c r="A37" s="21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C37" s="45">
         <f>(3-1)/2</f>
@@ -4250,122 +4484,129 @@
       <c r="D37" s="41">
         <v>3</v>
       </c>
-      <c r="E37" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="68">
+      <c r="E37" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="67">
         <f>(3-3*0.25)/3</f>
         <v>0.75</v>
       </c>
       <c r="G37" s="42">
         <v>3</v>
       </c>
-      <c r="H37" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37" s="74"/>
+      <c r="H37" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" s="72">
+        <f>(3-0.25*9)/3</f>
+        <v>0.25</v>
+      </c>
       <c r="J37" s="44">
         <v>3</v>
       </c>
-      <c r="K37" s="46"/>
+      <c r="K37" s="46" t="s">
+        <v>105</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A38" s="242" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="243"/>
-      <c r="C38" s="119">
+    <row r="38" spans="1:13" s="92" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A38" s="244" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="245"/>
+      <c r="C38" s="117">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>3.5</v>
       </c>
-      <c r="D38" s="85">
+      <c r="D38" s="83">
         <f>SUM(D34:D37)</f>
         <v>8</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="120">
+      <c r="E38" s="84"/>
+      <c r="F38" s="118">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
         <v>4.75</v>
       </c>
-      <c r="G38" s="88">
+      <c r="G38" s="86">
         <f>SUM(G34:G37)</f>
         <v>8</v>
       </c>
-      <c r="H38" s="89"/>
-      <c r="I38" s="101">
+      <c r="H38" s="87"/>
+      <c r="I38" s="99">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="102">
+        <v>4.75</v>
+      </c>
+      <c r="J38" s="100">
         <f>SUM(J34:J37)</f>
         <v>8</v>
       </c>
-      <c r="K38" s="103"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="244" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="245"/>
-      <c r="C39" s="240" t="s">
+      <c r="A39" s="246" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="247"/>
+      <c r="C39" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="241"/>
-      <c r="E39" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="240" t="s">
+      <c r="D39" s="243"/>
+      <c r="E39" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="241"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="240" t="s">
+      <c r="G39" s="243"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="241"/>
-      <c r="K39" s="57"/>
+      <c r="J39" s="243"/>
+      <c r="K39" s="56"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="45">
-      <c r="A40" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="81">
-        <v>1</v>
-      </c>
-      <c r="D40" s="82">
-        <v>1</v>
-      </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="106">
-        <v>1</v>
-      </c>
-      <c r="G40" s="107">
-        <v>1</v>
-      </c>
-      <c r="H40" s="108"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="112">
-        <v>1</v>
-      </c>
-      <c r="K40" s="113"/>
+      <c r="A40" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="79">
+        <v>1</v>
+      </c>
+      <c r="D40" s="80">
+        <v>1</v>
+      </c>
+      <c r="E40" s="81"/>
+      <c r="F40" s="104">
+        <v>1</v>
+      </c>
+      <c r="G40" s="105">
+        <v>1</v>
+      </c>
+      <c r="H40" s="106"/>
+      <c r="I40" s="109">
+        <v>1</v>
+      </c>
+      <c r="J40" s="110">
+        <v>1</v>
+      </c>
+      <c r="K40" s="111"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="30">
       <c r="A41" s="21" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C41" s="45">
         <v>1</v>
@@ -4373,15 +4614,17 @@
       <c r="D41" s="41">
         <v>4</v>
       </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="68">
+      <c r="E41" s="61"/>
+      <c r="F41" s="67">
         <v>1</v>
       </c>
       <c r="G41" s="42">
         <v>4</v>
       </c>
-      <c r="H41" s="69"/>
-      <c r="I41" s="74"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="72">
+        <v>1</v>
+      </c>
       <c r="J41" s="44">
         <v>4</v>
       </c>
@@ -4391,10 +4634,10 @@
     </row>
     <row r="42" spans="1:13" ht="104.25" customHeight="1">
       <c r="A42" s="21" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C42" s="45">
         <v>0</v>
@@ -4402,32 +4645,36 @@
       <c r="D42" s="41">
         <v>3</v>
       </c>
-      <c r="E42" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="68">
+      <c r="E42" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="67">
         <v>0</v>
       </c>
       <c r="G42" s="42">
         <v>3</v>
       </c>
-      <c r="H42" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="I42" s="74"/>
+      <c r="H42" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="72">
+        <v>0</v>
+      </c>
       <c r="J42" s="44">
         <v>3</v>
       </c>
-      <c r="K42" s="46"/>
+      <c r="K42" s="46" t="s">
+        <v>115</v>
+      </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" ht="45">
+    <row r="43" spans="1:13" ht="105">
       <c r="A43" s="21" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C43" s="45">
         <v>0</v>
@@ -4435,29 +4682,31 @@
       <c r="D43" s="41">
         <v>2</v>
       </c>
-      <c r="E43" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="68">
+      <c r="E43" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="67">
         <v>1</v>
       </c>
       <c r="G43" s="42">
         <v>2</v>
       </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="74"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="72">
+        <v>1</v>
+      </c>
       <c r="J43" s="44">
         <v>2</v>
       </c>
       <c r="K43" s="46"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:13" ht="60">
+    <row r="44" spans="1:13" ht="135">
       <c r="A44" s="21" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C44" s="35">
         <v>0</v>
@@ -4466,7 +4715,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F44" s="37">
         <f>1.5/2</f>
@@ -4476,9 +4725,11 @@
         <v>2</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="I44" s="39"/>
+        <v>122</v>
+      </c>
+      <c r="I44" s="39">
+        <v>1</v>
+      </c>
       <c r="J44" s="34">
         <v>2</v>
       </c>
@@ -4488,10 +4739,10 @@
     </row>
     <row r="45" spans="1:13" ht="90">
       <c r="A45" s="21" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C45" s="35">
         <v>1</v>
@@ -4500,7 +4751,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="36"/>
-      <c r="F45" s="232">
+      <c r="F45" s="221">
         <f>0.5/3</f>
         <v>0.16666666666666666</v>
       </c>
@@ -4508,22 +4759,27 @@
         <v>3</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="I45" s="39"/>
+        <v>125</v>
+      </c>
+      <c r="I45" s="231">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="J45" s="34">
         <v>3</v>
       </c>
-      <c r="K45" s="40"/>
+      <c r="K45" s="40" t="s">
+        <v>125</v>
+      </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="30">
       <c r="A46" s="21" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C46" s="45">
         <f>2.5/3</f>
@@ -4532,17 +4788,19 @@
       <c r="D46" s="41">
         <v>3</v>
       </c>
-      <c r="E46" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="68">
+      <c r="E46" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="67">
         <v>1</v>
       </c>
       <c r="G46" s="42">
         <v>3</v>
       </c>
-      <c r="H46" s="69"/>
-      <c r="I46" s="74"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="72">
+        <v>1</v>
+      </c>
       <c r="J46" s="44">
         <v>3</v>
       </c>
@@ -4550,12 +4808,12 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" ht="60">
+    <row r="47" spans="1:13" ht="180">
       <c r="A47" s="21" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C47" s="45">
         <v>0</v>
@@ -4563,33 +4821,38 @@
       <c r="D47" s="41">
         <v>6</v>
       </c>
-      <c r="E47" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="230">
+      <c r="E47" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="219">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="G47" s="42">
         <v>6</v>
       </c>
-      <c r="H47" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="I47" s="74"/>
+      <c r="H47" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="I47" s="72">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
       <c r="J47" s="44">
         <v>6</v>
       </c>
-      <c r="K47" s="46"/>
+      <c r="K47" s="46" t="s">
+        <v>133</v>
+      </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:13" ht="69.75" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C48" s="45">
         <v>0</v>
@@ -4597,20 +4860,22 @@
       <c r="D48" s="41">
         <v>8</v>
       </c>
-      <c r="E48" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="68">
+      <c r="E48" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="67">
         <f>7/8</f>
         <v>0.875</v>
       </c>
       <c r="G48" s="42">
         <v>8</v>
       </c>
-      <c r="H48" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="I48" s="74"/>
+      <c r="H48" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="I48" s="72">
+        <v>1</v>
+      </c>
       <c r="J48" s="44">
         <v>8</v>
       </c>
@@ -4620,10 +4885,10 @@
     </row>
     <row r="49" spans="1:13" ht="180">
       <c r="A49" s="21" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C49" s="45">
         <v>0</v>
@@ -4631,32 +4896,37 @@
       <c r="D49" s="41">
         <v>6</v>
       </c>
-      <c r="E49" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="68">
+      <c r="E49" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="67">
         <v>0</v>
       </c>
       <c r="G49" s="42">
         <v>6</v>
       </c>
-      <c r="H49" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="I49" s="74"/>
+      <c r="H49" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="I49" s="72">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
       <c r="J49" s="44">
         <v>6</v>
       </c>
-      <c r="K49" s="46"/>
+      <c r="K49" s="46" t="s">
+        <v>142</v>
+      </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="21" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C50" s="45">
         <v>1</v>
@@ -4664,15 +4934,17 @@
       <c r="D50" s="41">
         <v>3</v>
       </c>
-      <c r="E50" s="62"/>
-      <c r="F50" s="68">
+      <c r="E50" s="61"/>
+      <c r="F50" s="67">
         <v>1</v>
       </c>
       <c r="G50" s="42">
         <v>3</v>
       </c>
-      <c r="H50" s="69"/>
-      <c r="I50" s="74"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="72">
+        <v>1</v>
+      </c>
       <c r="J50" s="44">
         <v>3</v>
       </c>
@@ -4680,107 +4952,112 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A51" s="242" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="243"/>
-      <c r="C51" s="129">
+    <row r="51" spans="1:13" s="92" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A51" s="244" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="245"/>
+      <c r="C51" s="121">
         <f>SUMPRODUCT(C40:C50,D40:D50)</f>
         <v>13.5</v>
       </c>
-      <c r="D51" s="96">
+      <c r="D51" s="94">
         <f>SUM(D40:D50)</f>
         <v>41</v>
       </c>
-      <c r="E51" s="97"/>
-      <c r="F51" s="120">
+      <c r="E51" s="95"/>
+      <c r="F51" s="118">
         <f>SUMPRODUCT(F40:F50,G40:G50)</f>
         <v>23</v>
       </c>
-      <c r="G51" s="88">
+      <c r="G51" s="86">
         <f>SUM(G40:G50)</f>
         <v>41</v>
       </c>
-      <c r="H51" s="89"/>
-      <c r="I51" s="90">
+      <c r="H51" s="87"/>
+      <c r="I51" s="88">
         <f>SUMPRODUCT(I40:I50,J40:J50)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="91">
+        <v>28</v>
+      </c>
+      <c r="J51" s="89">
         <f>SUM(J40:J50)</f>
         <v>41</v>
       </c>
-      <c r="K51" s="92"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="93"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="91"/>
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A52" s="244" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="246"/>
-      <c r="C52" s="240" t="s">
+      <c r="A52" s="246" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="248"/>
+      <c r="C52" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="241"/>
-      <c r="E52" s="57" t="s">
+      <c r="D52" s="243"/>
+      <c r="E52" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="240" t="s">
+      <c r="F52" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="241"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="240" t="s">
+      <c r="G52" s="243"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="241"/>
-      <c r="K52" s="57"/>
+      <c r="J52" s="243"/>
+      <c r="K52" s="56"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" ht="30">
-      <c r="A53" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="109">
+    <row r="53" spans="1:13" ht="45">
+      <c r="A53" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="107">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="D53" s="58">
+      <c r="D53" s="57">
         <v>2</v>
       </c>
-      <c r="E53" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="F53" s="106">
+      <c r="E53" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="104">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="G53" s="107">
+      <c r="G53" s="105">
         <v>2</v>
       </c>
-      <c r="H53" s="108" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53" s="124"/>
-      <c r="J53" s="125">
+      <c r="H53" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" s="109">
+        <f>(2-1)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="J53" s="110">
         <v>2</v>
       </c>
-      <c r="K53" s="126"/>
+      <c r="K53" s="111" t="s">
+        <v>150</v>
+      </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
     <row r="54" spans="1:13" ht="75">
       <c r="A54" s="21" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C54" s="45">
         <f>1/2</f>
@@ -4789,33 +5066,35 @@
       <c r="D54" s="41">
         <v>2</v>
       </c>
-      <c r="E54" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" s="230">
-        <f>(2-0.5)/2</f>
-        <v>0.75</v>
+      <c r="E54" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="219">
+        <v>0.8</v>
       </c>
       <c r="G54" s="42">
         <v>2</v>
       </c>
-      <c r="H54" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="I54" s="127"/>
-      <c r="J54" s="121">
+      <c r="H54" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="I54" s="72">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="J54" s="44">
         <v>2</v>
       </c>
-      <c r="K54" s="128"/>
+      <c r="K54" s="46"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="53" t="s">
-        <v>139</v>
+      <c r="A55" s="52" t="s">
+        <v>155</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C55" s="45">
         <v>1</v>
@@ -4823,29 +5102,32 @@
       <c r="D55" s="41">
         <v>1</v>
       </c>
-      <c r="E55" s="62"/>
-      <c r="F55" s="68">
+      <c r="E55" s="61"/>
+      <c r="F55" s="67">
         <f>1/1</f>
         <v>1</v>
       </c>
       <c r="G55" s="42">
         <v>1</v>
       </c>
-      <c r="H55" s="69"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="121">
-        <v>1</v>
-      </c>
-      <c r="K55" s="128"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="72">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
+      <c r="J55" s="44">
+        <v>1</v>
+      </c>
+      <c r="K55" s="46"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" ht="105">
-      <c r="A56" s="53" t="s">
-        <v>141</v>
+      <c r="A56" s="52" t="s">
+        <v>157</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C56" s="45">
         <f>(4-2)/4</f>
@@ -4854,31 +5136,36 @@
       <c r="D56" s="41">
         <v>4</v>
       </c>
-      <c r="E56" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="68">
+      <c r="E56" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="67">
         <f>4/4</f>
         <v>1</v>
       </c>
       <c r="G56" s="42">
         <v>4</v>
       </c>
-      <c r="H56" s="69"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="121">
+      <c r="H56" s="68"/>
+      <c r="I56" s="72">
+        <f>(4-2)/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="J56" s="44">
         <v>4</v>
       </c>
-      <c r="K56" s="128"/>
+      <c r="K56" s="46" t="s">
+        <v>160</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" ht="45">
       <c r="A57" s="21" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C57" s="45">
         <v>1</v>
@@ -4886,135 +5173,138 @@
       <c r="D57" s="41">
         <v>2</v>
       </c>
-      <c r="E57" s="62"/>
-      <c r="F57" s="68">
+      <c r="E57" s="61"/>
+      <c r="F57" s="67">
         <f>2/2</f>
         <v>1</v>
       </c>
       <c r="G57" s="42">
         <v>2</v>
       </c>
-      <c r="H57" s="69"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="121">
+      <c r="H57" s="68"/>
+      <c r="I57" s="72">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="44">
         <v>2</v>
       </c>
-      <c r="K57" s="128"/>
+      <c r="K57" s="46"/>
       <c r="L57" s="7"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A58" s="242" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="243"/>
-      <c r="C58" s="95">
+    <row r="58" spans="1:13" s="92" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A58" s="244" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="245"/>
+      <c r="C58" s="93">
         <f>SUMPRODUCT(C53:C57,D53:D57)</f>
         <v>7</v>
       </c>
-      <c r="D58" s="96">
+      <c r="D58" s="94">
         <f>SUM(D53:D57)</f>
         <v>11</v>
       </c>
-      <c r="E58" s="97"/>
-      <c r="F58" s="98">
+      <c r="E58" s="95"/>
+      <c r="F58" s="96">
         <f>SUMPRODUCT(F53:F57,G53:G57)</f>
-        <v>9.5</v>
-      </c>
-      <c r="G58" s="99">
+        <v>9.6</v>
+      </c>
+      <c r="G58" s="97">
         <f>SUM(G53:G57)</f>
         <v>11</v>
       </c>
-      <c r="H58" s="100"/>
-      <c r="I58" s="90">
+      <c r="H58" s="98"/>
+      <c r="I58" s="88">
         <f>SUMPRODUCT(I53:I57,J53:J57)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="91">
+        <v>8</v>
+      </c>
+      <c r="J58" s="89">
         <f>SUM(J53:J57)</f>
         <v>11</v>
       </c>
-      <c r="K58" s="92"/>
-      <c r="L58" s="93"/>
-      <c r="M58" s="93"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="91"/>
+      <c r="M58" s="91"/>
     </row>
     <row r="59" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="268" t="s">
+      <c r="A59" s="270" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="269"/>
-      <c r="C59" s="269"/>
-      <c r="D59" s="269"/>
-      <c r="E59" s="269"/>
-      <c r="F59" s="269"/>
-      <c r="G59" s="269"/>
-      <c r="H59" s="269"/>
-      <c r="I59" s="269"/>
-      <c r="J59" s="269"/>
-      <c r="K59" s="270"/>
+      <c r="B59" s="271"/>
+      <c r="C59" s="271"/>
+      <c r="D59" s="271"/>
+      <c r="E59" s="271"/>
+      <c r="F59" s="271"/>
+      <c r="G59" s="271"/>
+      <c r="H59" s="271"/>
+      <c r="I59" s="271"/>
+      <c r="J59" s="271"/>
+      <c r="K59" s="272"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="271" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="272"/>
-      <c r="C60" s="130">
+      <c r="A60" s="273" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="274"/>
+      <c r="C60" s="122">
         <f t="shared" ref="C60:J60" si="0">C14+C21+C26+C32+C38+C51+C58</f>
         <v>46.25</v>
       </c>
-      <c r="D60" s="60">
+      <c r="D60" s="59">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E60" s="61"/>
-      <c r="F60" s="131">
+      <c r="E60" s="60"/>
+      <c r="F60" s="123">
         <f t="shared" si="0"/>
-        <v>69.3</v>
-      </c>
-      <c r="G60" s="66">
+        <v>69.399999999999991</v>
+      </c>
+      <c r="G60" s="65">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H60" s="67"/>
-      <c r="I60" s="132">
+      <c r="H60" s="66"/>
+      <c r="I60" s="124">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="122">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="J60" s="119">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K60" s="123"/>
+      <c r="K60" s="120"/>
       <c r="L60" s="7"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="273" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="274"/>
-      <c r="C61" s="275">
+    <row r="61" spans="1:13" s="92" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A61" s="275" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="276"/>
+      <c r="C61" s="277">
         <f>C60/D60</f>
         <v>0.46250000000000002</v>
       </c>
-      <c r="D61" s="276"/>
-      <c r="E61" s="277"/>
-      <c r="F61" s="278">
+      <c r="D61" s="278"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="280">
         <f>F60/G60</f>
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="G61" s="279"/>
-      <c r="H61" s="280"/>
-      <c r="I61" s="281">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="G61" s="281"/>
+      <c r="H61" s="282"/>
+      <c r="I61" s="283">
         <f>I60/J60</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="282"/>
-      <c r="K61" s="283"/>
-      <c r="L61" s="133"/>
-      <c r="M61" s="133"/>
+        <v>0.69900000000000007</v>
+      </c>
+      <c r="J61" s="284"/>
+      <c r="K61" s="285"/>
+      <c r="L61" s="125"/>
+      <c r="M61" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -5087,1058 +5377,1105 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="135" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="135" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="135"/>
-    <col min="5" max="5" width="11" style="135" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="135" customWidth="1"/>
-    <col min="7" max="7" width="54.85546875" style="135" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="135"/>
+    <col min="1" max="1" width="50.5703125" style="127" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="127" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="127"/>
+    <col min="5" max="5" width="11" style="127" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="127" customWidth="1"/>
+    <col min="7" max="7" width="98.28515625" style="127" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="127"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="284" t="s">
+      <c r="A2" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="129"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
-      <c r="A4" s="134" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
+      <c r="A4" s="126" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="24" thickBot="1">
-      <c r="A6" s="292" t="s">
+      <c r="A6" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="293"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
-      <c r="G6" s="294"/>
+      <c r="B6" s="295"/>
+      <c r="C6" s="295"/>
+      <c r="D6" s="295"/>
+      <c r="E6" s="295"/>
+      <c r="F6" s="295"/>
+      <c r="G6" s="296"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="157" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="295"/>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="296"/>
+      <c r="A7" s="148" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="297"/>
+      <c r="C7" s="297"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="298"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="205" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="184" t="s">
+      <c r="A8" s="194" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="184" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="184" t="s">
+      <c r="C8" s="173" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="184" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="184" t="s">
+      <c r="E8" s="173" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="185" t="s">
+      <c r="G8" s="174" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="145" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="138">
+      <c r="A9" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="130">
         <f>5/5</f>
         <v>1</v>
       </c>
-      <c r="C9" s="138">
+      <c r="C9" s="130">
         <v>0.75</v>
       </c>
-      <c r="D9" s="138">
+      <c r="D9" s="130">
         <v>5</v>
       </c>
-      <c r="E9" s="138">
+      <c r="E9" s="130">
         <f t="shared" ref="E9:E19" si="0">B9*C9*D9</f>
         <v>3.75</v>
       </c>
-      <c r="F9" s="219" t="s">
+      <c r="F9" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="221" t="s">
-        <v>154</v>
+      <c r="G9" s="210" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75">
-      <c r="A10" s="186" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="187">
+      <c r="A10" s="175" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="176">
         <v>0.5</v>
       </c>
-      <c r="C10" s="187">
+      <c r="C10" s="176">
         <v>0.75</v>
       </c>
-      <c r="D10" s="187">
+      <c r="D10" s="176">
         <v>5</v>
       </c>
-      <c r="E10" s="187">
+      <c r="E10" s="176">
         <f t="shared" si="0"/>
         <v>1.875</v>
       </c>
-      <c r="F10" s="220" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="223" t="s">
-        <v>156</v>
+      <c r="F10" s="209" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="212" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="180">
-      <c r="A11" s="145" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="222">
+      <c r="A11" s="137" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="211">
         <f>(18-5)/18</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="C11" s="138">
+      <c r="C11" s="130">
         <v>0.75</v>
       </c>
-      <c r="D11" s="138">
+      <c r="D11" s="130">
         <v>18</v>
       </c>
-      <c r="E11" s="138">
+      <c r="E11" s="130">
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
-      <c r="F11" s="219" t="s">
+      <c r="F11" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="221" t="s">
-        <v>158</v>
+      <c r="G11" s="210" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90">
-      <c r="A12" s="186" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="187">
+      <c r="A12" s="175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="176">
         <f>13/16</f>
         <v>0.8125</v>
       </c>
-      <c r="C12" s="187">
+      <c r="C12" s="176">
         <v>0.75</v>
       </c>
-      <c r="D12" s="187">
+      <c r="D12" s="176">
         <v>16</v>
       </c>
-      <c r="E12" s="187">
+      <c r="E12" s="176">
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
-      <c r="F12" s="220" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="223" t="s">
-        <v>160</v>
+      <c r="F12" s="209" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="212" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="180">
-      <c r="A13" s="145" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="138">
+      <c r="A13" s="137" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="130">
         <f>7/10</f>
         <v>0.7</v>
       </c>
-      <c r="C13" s="138">
+      <c r="C13" s="130">
         <v>0.75</v>
       </c>
-      <c r="D13" s="138">
+      <c r="D13" s="130">
         <v>10</v>
       </c>
-      <c r="E13" s="138">
+      <c r="E13" s="130">
         <f t="shared" si="0"/>
         <v>5.2499999999999991</v>
       </c>
-      <c r="F13" s="219" t="s">
+      <c r="F13" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="221" t="s">
-        <v>162</v>
+      <c r="G13" s="210" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75">
-      <c r="A14" s="145" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="138">
+      <c r="A14" s="137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="130">
         <f>7/8</f>
         <v>0.875</v>
       </c>
-      <c r="C14" s="138">
-        <v>1</v>
-      </c>
-      <c r="D14" s="138">
+      <c r="C14" s="130">
+        <v>1</v>
+      </c>
+      <c r="D14" s="130">
         <v>8</v>
       </c>
-      <c r="E14" s="138">
+      <c r="E14" s="130">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F14" s="219" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="221" t="s">
-        <v>164</v>
+      <c r="F14" s="208" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="210" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="60">
-      <c r="A15" s="186" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="224">
+      <c r="A15" s="175" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="213">
         <f>(12-1)/12</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="C15" s="187">
+      <c r="C15" s="176">
         <v>0.75</v>
       </c>
-      <c r="D15" s="187">
+      <c r="D15" s="176">
         <v>12</v>
       </c>
-      <c r="E15" s="187">
+      <c r="E15" s="176">
         <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
-      <c r="F15" s="220" t="s">
+      <c r="F15" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="223" t="s">
-        <v>166</v>
+      <c r="G15" s="212" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="90">
-      <c r="A16" s="145" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="138">
+      <c r="A16" s="137" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="130">
         <v>0.2</v>
       </c>
-      <c r="C16" s="138">
-        <v>1</v>
-      </c>
-      <c r="D16" s="138">
+      <c r="C16" s="130">
+        <v>1</v>
+      </c>
+      <c r="D16" s="130">
         <v>10</v>
       </c>
-      <c r="E16" s="138">
+      <c r="E16" s="130">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F16" s="219" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="221" t="s">
-        <v>168</v>
+      <c r="F16" s="208" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="210" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="186" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="187">
-        <v>1</v>
-      </c>
-      <c r="C17" s="187">
+      <c r="A17" s="175" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="176">
+        <v>1</v>
+      </c>
+      <c r="C17" s="176">
         <v>0.75</v>
       </c>
-      <c r="D17" s="187">
+      <c r="D17" s="176">
         <v>4</v>
       </c>
-      <c r="E17" s="187">
+      <c r="E17" s="176">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F17" s="220" t="s">
+      <c r="F17" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="223" t="s">
-        <v>170</v>
+      <c r="G17" s="212" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="90">
-      <c r="A18" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="138">
+      <c r="A18" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="130">
         <v>0</v>
       </c>
-      <c r="C18" s="138">
+      <c r="C18" s="130">
         <v>0</v>
       </c>
-      <c r="D18" s="138">
+      <c r="D18" s="130">
         <v>6</v>
       </c>
-      <c r="E18" s="138">
+      <c r="E18" s="130">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="226" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="221" t="s">
-        <v>172</v>
+      <c r="F18" s="215" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="210" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="186" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="187">
-        <v>1</v>
-      </c>
-      <c r="C19" s="187">
-        <v>1</v>
-      </c>
-      <c r="D19" s="187">
+      <c r="A19" s="175" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="176">
+        <v>1</v>
+      </c>
+      <c r="C19" s="176">
+        <v>1</v>
+      </c>
+      <c r="D19" s="176">
         <v>6</v>
       </c>
-      <c r="E19" s="187">
+      <c r="E19" s="176">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F19" s="220" t="s">
+      <c r="F19" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="188"/>
+      <c r="G19" s="177"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="166" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="297"/>
-      <c r="C20" s="297"/>
-      <c r="D20" s="218">
+      <c r="A20" s="157" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="299"/>
+      <c r="C20" s="299"/>
+      <c r="D20" s="207">
         <f>SUM(D9:D19)</f>
         <v>100</v>
       </c>
-      <c r="E20" s="167">
+      <c r="E20" s="158">
         <f>SUM(E9:E19)/D20 + E22*D22 + E21*D21</f>
         <v>0.54375000000000007</v>
       </c>
-      <c r="F20" s="169"/>
-      <c r="G20" s="168"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="159"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="186" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="189"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="190">
+      <c r="A21" s="175" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="178"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="179">
         <v>-0.15</v>
       </c>
-      <c r="E21" s="189">
+      <c r="E21" s="178">
         <v>0.15</v>
       </c>
-      <c r="F21" s="189"/>
-      <c r="G21" s="191" t="s">
-        <v>176</v>
+      <c r="F21" s="178"/>
+      <c r="G21" s="180" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="146" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148">
+      <c r="A22" s="138" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="140">
         <v>-0.2</v>
       </c>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="149"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="141"/>
     </row>
     <row r="23" spans="1:7" ht="24" thickBot="1">
-      <c r="A23" s="298" t="s">
+      <c r="A23" s="300" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="300"/>
+      <c r="B23" s="301"/>
+      <c r="C23" s="301"/>
+      <c r="D23" s="301"/>
+      <c r="E23" s="301"/>
+      <c r="F23" s="301"/>
+      <c r="G23" s="302"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="156" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="285"/>
-      <c r="C24" s="285"/>
-      <c r="D24" s="285"/>
-      <c r="E24" s="285"/>
-      <c r="F24" s="285"/>
-      <c r="G24" s="286"/>
+      <c r="A24" s="147" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="287"/>
+      <c r="C24" s="287"/>
+      <c r="D24" s="287"/>
+      <c r="E24" s="287"/>
+      <c r="F24" s="287"/>
+      <c r="G24" s="288"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="204" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="192" t="s">
+      <c r="A25" s="193" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="192" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="192" t="s">
+      <c r="C25" s="181" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="192" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="192" t="s">
+      <c r="E25" s="181" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="193" t="s">
+      <c r="G25" s="182" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="75">
-      <c r="A26" s="150" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" s="301">
+      <c r="A26" s="142" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="229">
         <f>20/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="C26" s="139">
-        <v>1</v>
-      </c>
-      <c r="D26" s="139">
+      <c r="C26" s="131">
+        <v>1</v>
+      </c>
+      <c r="D26" s="131">
         <v>24</v>
       </c>
-      <c r="E26" s="139">
+      <c r="E26" s="131">
         <f>B26*C26*D26</f>
         <v>20</v>
       </c>
-      <c r="F26" s="139" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="233" t="s">
-        <v>179</v>
+      <c r="F26" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="222" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="194" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="195">
-        <v>1</v>
-      </c>
-      <c r="C27" s="195">
-        <v>1</v>
-      </c>
-      <c r="D27" s="195">
+      <c r="A27" s="183" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="184">
+        <v>1</v>
+      </c>
+      <c r="C27" s="184">
+        <v>1</v>
+      </c>
+      <c r="D27" s="184">
         <v>8</v>
       </c>
-      <c r="E27" s="195">
+      <c r="E27" s="184">
         <f t="shared" ref="E27:E35" si="1">B27*C27*D27</f>
         <v>8</v>
       </c>
-      <c r="F27" s="195" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="196"/>
+      <c r="F27" s="184" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="185"/>
     </row>
     <row r="28" spans="1:7" ht="60">
-      <c r="A28" s="150" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="139">
+      <c r="A28" s="142" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="131">
         <f>7/10</f>
         <v>0.7</v>
       </c>
-      <c r="C28" s="139">
-        <v>1</v>
-      </c>
-      <c r="D28" s="139">
+      <c r="C28" s="131">
+        <v>1</v>
+      </c>
+      <c r="D28" s="131">
         <v>10</v>
       </c>
-      <c r="E28" s="139">
+      <c r="E28" s="131">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F28" s="139" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="233" t="s">
-        <v>182</v>
+      <c r="F28" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="222" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="194" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="195">
-        <v>1</v>
-      </c>
-      <c r="C29" s="195">
+      <c r="A29" s="183" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="184">
+        <v>1</v>
+      </c>
+      <c r="C29" s="184">
         <v>0.5</v>
       </c>
-      <c r="D29" s="195">
+      <c r="D29" s="184">
         <v>8</v>
       </c>
-      <c r="E29" s="195">
+      <c r="E29" s="184">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F29" s="195" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="196"/>
+      <c r="F29" s="184" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="185"/>
     </row>
     <row r="30" spans="1:7" ht="315">
-      <c r="A30" s="150" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" s="139">
+      <c r="A30" s="142" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="131">
         <f>9/10</f>
         <v>0.9</v>
       </c>
-      <c r="C30" s="139">
+      <c r="C30" s="131">
         <v>0.75</v>
       </c>
-      <c r="D30" s="139">
+      <c r="D30" s="131">
         <v>10</v>
       </c>
-      <c r="E30" s="139">
+      <c r="E30" s="131">
         <f t="shared" si="1"/>
         <v>6.75</v>
       </c>
-      <c r="F30" s="139" t="s">
+      <c r="F30" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="233" t="s">
-        <v>185</v>
+      <c r="G30" s="222" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="375">
-      <c r="A31" s="194" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="237">
+      <c r="A31" s="183" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="226">
         <f>(12-3)/12</f>
         <v>0.75</v>
       </c>
-      <c r="C31" s="195">
-        <v>1</v>
-      </c>
-      <c r="D31" s="195">
+      <c r="C31" s="184">
+        <v>1</v>
+      </c>
+      <c r="D31" s="184">
         <v>12</v>
       </c>
-      <c r="E31" s="195">
+      <c r="E31" s="184">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F31" s="195" t="s">
+      <c r="F31" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="236" t="s">
-        <v>187</v>
+      <c r="G31" s="225" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="225">
-      <c r="A32" s="150" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" s="139">
+      <c r="A32" s="142" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="131">
         <f>(10-0.5)/10</f>
         <v>0.95</v>
       </c>
-      <c r="C32" s="139">
+      <c r="C32" s="131">
         <v>0.75</v>
       </c>
-      <c r="D32" s="139">
+      <c r="D32" s="131">
         <v>10</v>
       </c>
-      <c r="E32" s="139">
+      <c r="E32" s="131">
         <f t="shared" si="1"/>
         <v>7.1249999999999991</v>
       </c>
-      <c r="F32" s="139" t="s">
+      <c r="F32" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="233" t="s">
-        <v>189</v>
+      <c r="G32" s="222" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="270">
-      <c r="A33" s="194" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" s="195">
+      <c r="A33" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="184">
         <f>(4-1)/4</f>
         <v>0.75</v>
       </c>
-      <c r="C33" s="195">
+      <c r="C33" s="184">
         <v>0.5</v>
       </c>
-      <c r="D33" s="195">
+      <c r="D33" s="184">
         <v>4</v>
       </c>
-      <c r="E33" s="195">
+      <c r="E33" s="184">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="F33" s="195" t="s">
+      <c r="F33" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="236" t="s">
-        <v>191</v>
+      <c r="G33" s="225" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="270">
-      <c r="A34" s="150" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" s="139">
+      <c r="A34" s="142" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="131">
         <f>(10-4)/10</f>
         <v>0.6</v>
       </c>
-      <c r="C34" s="139">
-        <v>1</v>
-      </c>
-      <c r="D34" s="139">
+      <c r="C34" s="131">
+        <v>1</v>
+      </c>
+      <c r="D34" s="131">
         <v>10</v>
       </c>
-      <c r="E34" s="139">
+      <c r="E34" s="131">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F34" s="139" t="s">
+      <c r="F34" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="238" t="s">
-        <v>193</v>
+      <c r="G34" s="227" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="240">
-      <c r="A35" s="234" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" s="235">
+      <c r="A35" s="223" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="224">
         <f>(4-2)/4</f>
         <v>0.5</v>
       </c>
-      <c r="C35" s="235">
-        <v>1</v>
-      </c>
-      <c r="D35" s="235">
+      <c r="C35" s="224">
+        <v>1</v>
+      </c>
+      <c r="D35" s="224">
         <v>4</v>
       </c>
-      <c r="E35" s="235">
+      <c r="E35" s="224">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F35" s="235" t="s">
+      <c r="F35" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="239" t="s">
-        <v>195</v>
+      <c r="G35" s="228" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="162" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="163"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163">
+      <c r="A36" s="153" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="154"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154">
         <f>SUM(D26:D35)</f>
         <v>100</v>
       </c>
-      <c r="E36" s="164">
+      <c r="E36" s="155">
         <f>SUM(E26:E35)/D36 + E37*D37 + E38*D38 + E39*D39</f>
         <v>0.71375</v>
       </c>
-      <c r="F36" s="164"/>
-      <c r="G36" s="165"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="156"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="194" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="197"/>
-      <c r="C37" s="197"/>
-      <c r="D37" s="198">
+      <c r="A37" s="183" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="186"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="187">
         <v>-0.15</v>
       </c>
-      <c r="E37" s="197"/>
-      <c r="F37" s="197"/>
-      <c r="G37" s="199"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="188"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="150" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" s="140"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="141">
+      <c r="A38" s="142" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="133">
         <v>-0.2</v>
       </c>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="151"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="143"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A39" s="200" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" s="201"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="202">
+      <c r="A39" s="189" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="191">
         <v>-0.05</v>
       </c>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="203"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="192"/>
     </row>
     <row r="40" spans="1:7" ht="24" thickBot="1">
-      <c r="A40" s="287" t="s">
+      <c r="A40" s="289" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="288"/>
-      <c r="C40" s="288"/>
-      <c r="D40" s="288"/>
-      <c r="E40" s="288"/>
-      <c r="F40" s="288"/>
-      <c r="G40" s="289"/>
+      <c r="B40" s="290"/>
+      <c r="C40" s="290"/>
+      <c r="D40" s="290"/>
+      <c r="E40" s="290"/>
+      <c r="F40" s="290"/>
+      <c r="G40" s="291"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="155" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="290"/>
-      <c r="C41" s="290"/>
-      <c r="D41" s="290"/>
-      <c r="E41" s="290"/>
-      <c r="F41" s="290"/>
-      <c r="G41" s="291"/>
+      <c r="A41" s="146" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="292"/>
+      <c r="C41" s="292"/>
+      <c r="D41" s="292"/>
+      <c r="E41" s="292"/>
+      <c r="F41" s="292"/>
+      <c r="G41" s="293"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="173" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="174" t="s">
+      <c r="A42" s="164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="174" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="174" t="s">
+      <c r="C42" s="165" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="174" t="s">
-        <v>152</v>
-      </c>
-      <c r="F42" s="175" t="s">
+      <c r="E42" s="165" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="176" t="s">
+      <c r="G42" s="167" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="152" t="s">
-        <v>198</v>
-      </c>
-      <c r="B43" s="142">
-        <v>0</v>
-      </c>
-      <c r="C43" s="142">
-        <v>0</v>
-      </c>
-      <c r="D43" s="142">
+      <c r="A43" s="144" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="239">
+        <f>13.5/14</f>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="C43" s="134">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="134">
         <v>14</v>
       </c>
-      <c r="E43" s="142">
+      <c r="E43" s="134">
         <f t="shared" ref="E43:E52" si="2">B43*C43*D43</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="142"/>
-      <c r="G43" s="153"/>
+        <v>10.125</v>
+      </c>
+      <c r="F43" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="145" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="170" t="s">
-        <v>199</v>
-      </c>
-      <c r="B44" s="171">
-        <v>0</v>
-      </c>
-      <c r="C44" s="171">
-        <v>0</v>
-      </c>
-      <c r="D44" s="171">
+      <c r="A44" s="161" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="162">
+        <v>1</v>
+      </c>
+      <c r="C44" s="162">
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="162">
         <v>10</v>
       </c>
-      <c r="E44" s="171">
+      <c r="E44" s="162">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="171"/>
-      <c r="G44" s="172"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="152" t="s">
-        <v>200</v>
-      </c>
-      <c r="B45" s="142">
-        <v>0</v>
-      </c>
-      <c r="C45" s="142">
-        <v>0</v>
-      </c>
-      <c r="D45" s="142">
+        <v>7.5</v>
+      </c>
+      <c r="F44" s="162" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="163"/>
+    </row>
+    <row r="45" spans="1:7" ht="296.25" customHeight="1">
+      <c r="A45" s="144" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="239">
+        <f>(12-0.5)/12</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C45" s="134">
+        <v>1</v>
+      </c>
+      <c r="D45" s="134">
         <v>12</v>
       </c>
-      <c r="E45" s="142">
+      <c r="E45" s="134">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="142"/>
-      <c r="G45" s="153"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="170" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="171">
-        <v>0</v>
-      </c>
-      <c r="C46" s="171">
-        <v>0</v>
-      </c>
-      <c r="D46" s="171">
+        <v>11.5</v>
+      </c>
+      <c r="F45" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="171">
+      <c r="G45" s="236" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="210">
+      <c r="A46" s="161" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="240">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
+      <c r="C46" s="162">
+        <v>1</v>
+      </c>
+      <c r="D46" s="162">
+        <v>18</v>
+      </c>
+      <c r="E46" s="162">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="171"/>
-      <c r="G46" s="172"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="152" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="142">
-        <v>0</v>
-      </c>
-      <c r="C47" s="142">
-        <v>0</v>
-      </c>
-      <c r="D47" s="142">
+        <v>18</v>
+      </c>
+      <c r="F46" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="234" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="180">
+      <c r="A47" s="144" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="134">
+        <v>1</v>
+      </c>
+      <c r="C47" s="134">
+        <v>1</v>
+      </c>
+      <c r="D47" s="134">
         <v>16</v>
       </c>
-      <c r="E47" s="142">
+      <c r="E47" s="134">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="142"/>
-      <c r="G47" s="153"/>
+        <v>16</v>
+      </c>
+      <c r="F47" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="236" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="170" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" s="171">
-        <v>0</v>
-      </c>
-      <c r="C48" s="171">
-        <v>0</v>
-      </c>
-      <c r="D48" s="171">
+      <c r="A48" s="161" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" s="238">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C48" s="162">
+        <v>0.75</v>
+      </c>
+      <c r="D48" s="162">
         <v>6</v>
       </c>
-      <c r="E48" s="171">
+      <c r="E48" s="162">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="171"/>
-      <c r="G48" s="172"/>
+        <v>3.75</v>
+      </c>
+      <c r="F48" s="162" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="163" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="152" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49" s="142">
-        <v>0</v>
-      </c>
-      <c r="C49" s="142">
-        <v>0</v>
-      </c>
-      <c r="D49" s="142">
+      <c r="A49" s="144" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" s="134">
+        <v>1</v>
+      </c>
+      <c r="C49" s="134">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="134">
         <v>6</v>
       </c>
-      <c r="E49" s="142">
+      <c r="E49" s="134">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="142"/>
-      <c r="G49" s="153"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="170" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50" s="171">
-        <v>0</v>
-      </c>
-      <c r="C50" s="171">
-        <v>0</v>
-      </c>
-      <c r="D50" s="171">
+        <v>4.5</v>
+      </c>
+      <c r="F49" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="145"/>
+    </row>
+    <row r="50" spans="1:7" ht="30">
+      <c r="A50" s="161" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" s="238">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C50" s="162">
+        <v>0.75</v>
+      </c>
+      <c r="D50" s="162">
         <v>6</v>
       </c>
-      <c r="E50" s="171">
+      <c r="E50" s="162">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="171"/>
-      <c r="G50" s="172"/>
+        <v>3</v>
+      </c>
+      <c r="F50" s="162" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="234" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="152" t="s">
-        <v>206</v>
-      </c>
-      <c r="B51" s="142">
-        <v>0</v>
-      </c>
-      <c r="C51" s="142">
-        <v>0</v>
-      </c>
-      <c r="D51" s="142">
+      <c r="A51" s="144" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" s="134">
+        <v>1</v>
+      </c>
+      <c r="C51" s="134">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="134">
         <v>8</v>
       </c>
-      <c r="E51" s="142">
+      <c r="E51" s="134">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="142"/>
-      <c r="G51" s="153"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="170" t="s">
-        <v>207</v>
-      </c>
-      <c r="B52" s="171">
-        <v>0</v>
-      </c>
-      <c r="C52" s="171">
-        <v>0</v>
-      </c>
-      <c r="D52" s="171">
+        <v>6</v>
+      </c>
+      <c r="F51" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="145"/>
+    </row>
+    <row r="52" spans="1:7" ht="90">
+      <c r="A52" s="161" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="162">
+        <v>1</v>
+      </c>
+      <c r="C52" s="162">
+        <v>1</v>
+      </c>
+      <c r="D52" s="162">
         <v>4</v>
       </c>
-      <c r="E52" s="171">
+      <c r="E52" s="162">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="171"/>
-      <c r="G52" s="172"/>
+        <v>4</v>
+      </c>
+      <c r="F52" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="234" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="B53" s="159"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="159">
+      <c r="A53" s="149" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="150"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150">
         <f>SUM(D43:D52)</f>
         <v>100</v>
       </c>
-      <c r="E53" s="160">
+      <c r="E53" s="151">
         <f>SUM(E43:E52)/D53 + D54*E54  + D55*E55 + D56*E56</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="160"/>
-      <c r="G53" s="161"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="170" t="s">
-        <v>175</v>
-      </c>
-      <c r="B54" s="177"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="178">
+        <v>0.75625000000000009</v>
+      </c>
+      <c r="F53" s="151"/>
+      <c r="G53" s="152"/>
+    </row>
+    <row r="54" spans="1:7" ht="75">
+      <c r="A54" s="161" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="169">
         <v>-0.15</v>
       </c>
-      <c r="E54" s="177"/>
-      <c r="F54" s="177"/>
-      <c r="G54" s="179"/>
+      <c r="E54" s="168">
+        <v>0.5</v>
+      </c>
+      <c r="F54" s="168"/>
+      <c r="G54" s="235" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="144">
+      <c r="A55" s="144" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" s="135"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="136">
         <v>-0.2</v>
       </c>
-      <c r="E55" s="143"/>
-      <c r="F55" s="143"/>
-      <c r="G55" s="154"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A56" s="180" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56" s="181"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="182">
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="233"/>
+    </row>
+    <row r="56" spans="1:7" ht="45">
+      <c r="A56" s="170" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56" s="171"/>
+      <c r="C56" s="171"/>
+      <c r="D56" s="172">
         <v>-0.05</v>
       </c>
-      <c r="E56" s="181"/>
-      <c r="F56" s="181"/>
-      <c r="G56" s="183"/>
+      <c r="E56" s="171">
+        <v>0.25</v>
+      </c>
+      <c r="F56" s="171"/>
+      <c r="G56" s="237" t="s">
+        <v>233</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6170,6 +6507,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6178,7 +6521,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -6310,20 +6653,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>